--- a/data/NIH-Cambodia-All-Seq.xlsx
+++ b/data/NIH-Cambodia-All-Seq.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carabrook/Developer/cambodia-dengue-national/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD0CBF-E8CB-C74F-BF11-1725315A8A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E2129-FBF8-4E45-8A7F-D0CFE65FBB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="-21100" windowWidth="21400" windowHeight="16940" xr2:uid="{4CB796B0-4F76-B045-A7AD-62839F541733}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4CB796B0-4F76-B045-A7AD-62839F541733}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="615">
   <si>
     <t>OL414731_2020-09-04</t>
   </si>
@@ -1298,17 +1298,596 @@
     <t>100-0653</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>PP396279</t>
+  </si>
+  <si>
+    <t>PP396280</t>
+  </si>
+  <si>
+    <t>PP406368</t>
+  </si>
+  <si>
+    <t>PP406369</t>
+  </si>
+  <si>
+    <t>PP406370</t>
+  </si>
+  <si>
+    <t>PP406371</t>
+  </si>
+  <si>
+    <t>PP406372</t>
+  </si>
+  <si>
+    <t>PP406373</t>
+  </si>
+  <si>
+    <t>PP406374</t>
+  </si>
+  <si>
+    <t>PP406375</t>
+  </si>
+  <si>
+    <t>PP406376</t>
+  </si>
+  <si>
+    <t>PP406447</t>
+  </si>
+  <si>
+    <t>PP406448</t>
+  </si>
+  <si>
+    <t>PP406449</t>
+  </si>
+  <si>
+    <t>PP406450</t>
+  </si>
+  <si>
+    <t>PP406451</t>
+  </si>
+  <si>
+    <t>PP406452</t>
+  </si>
+  <si>
+    <t>PP406453</t>
+  </si>
+  <si>
+    <t>PP406454</t>
+  </si>
+  <si>
+    <t>PP406455</t>
+  </si>
+  <si>
+    <t>PP411227</t>
+  </si>
+  <si>
+    <t>PP411228</t>
+  </si>
+  <si>
+    <t>PP411229</t>
+  </si>
+  <si>
+    <t>PP411230</t>
+  </si>
+  <si>
+    <t>PP411231</t>
+  </si>
+  <si>
+    <t>PP411232</t>
+  </si>
+  <si>
+    <t>PP411233</t>
+  </si>
+  <si>
+    <t>PP411234</t>
+  </si>
+  <si>
+    <t>PP411235</t>
+  </si>
+  <si>
+    <t>PP411249</t>
+  </si>
+  <si>
+    <t>PP411250</t>
+  </si>
+  <si>
+    <t>PP411251</t>
+  </si>
+  <si>
+    <t>PP411252</t>
+  </si>
+  <si>
+    <t>PP411253</t>
+  </si>
+  <si>
+    <t>PP411254</t>
+  </si>
+  <si>
+    <t>PP411255</t>
+  </si>
+  <si>
+    <t>PP411256</t>
+  </si>
+  <si>
+    <t>PP411257</t>
+  </si>
+  <si>
+    <t>PP439574</t>
+  </si>
+  <si>
+    <t>PP439575</t>
+  </si>
+  <si>
+    <t>PP439576</t>
+  </si>
+  <si>
+    <t>PP439577</t>
+  </si>
+  <si>
+    <t>PP439578</t>
+  </si>
+  <si>
+    <t>PP439579</t>
+  </si>
+  <si>
+    <t>PP439580</t>
+  </si>
+  <si>
+    <t>PP439581</t>
+  </si>
+  <si>
+    <t>PP439582</t>
+  </si>
+  <si>
+    <t>PP446688</t>
+  </si>
+  <si>
+    <t>PP446689</t>
+  </si>
+  <si>
+    <t>PP446690</t>
+  </si>
+  <si>
+    <t>PP446691</t>
+  </si>
+  <si>
+    <t>PP446692</t>
+  </si>
+  <si>
+    <t>PP446693</t>
+  </si>
+  <si>
+    <t>PP446694</t>
+  </si>
+  <si>
+    <t>PP469533</t>
+  </si>
+  <si>
+    <t>PP469534</t>
+  </si>
+  <si>
+    <t>PP470598</t>
+  </si>
+  <si>
+    <t>PP470599</t>
+  </si>
+  <si>
+    <t>PP470600</t>
+  </si>
+  <si>
+    <t>PP470601</t>
+  </si>
+  <si>
+    <t>PP470602</t>
+  </si>
+  <si>
+    <t>PP470603</t>
+  </si>
+  <si>
+    <t>NDCP - lat long is centroid of the province; Kampong Speu</t>
+  </si>
+  <si>
+    <t>NDCP - lat long is centroid of the province; Svay Reang</t>
+  </si>
+  <si>
+    <t>NDCP - lat long is centroid of the province; Pursat</t>
+  </si>
+  <si>
+    <t>109-1034</t>
+  </si>
+  <si>
+    <t>109-0998</t>
+  </si>
+  <si>
+    <t>109-1123</t>
+  </si>
+  <si>
+    <t>109-1240</t>
+  </si>
+  <si>
+    <t>109-1272</t>
+  </si>
+  <si>
+    <t>109-1281</t>
+  </si>
+  <si>
+    <t>109-1458</t>
+  </si>
+  <si>
+    <t>109-1462</t>
+  </si>
+  <si>
+    <t>109-1546</t>
+  </si>
+  <si>
+    <t>109-1724</t>
+  </si>
+  <si>
+    <t>109-1733</t>
+  </si>
+  <si>
+    <t>109-1751</t>
+  </si>
+  <si>
+    <t>109-1752</t>
+  </si>
+  <si>
+    <t>109-1758</t>
+  </si>
+  <si>
+    <t>109-1759</t>
+  </si>
+  <si>
+    <t>109-1760</t>
+  </si>
+  <si>
+    <t>109-1787</t>
+  </si>
+  <si>
+    <t>109-1796</t>
+  </si>
+  <si>
+    <t>109-1806</t>
+  </si>
+  <si>
+    <t>109-1815</t>
+  </si>
+  <si>
+    <t>109-1833</t>
+  </si>
+  <si>
+    <t>109-1835</t>
+  </si>
+  <si>
+    <t>109-1837</t>
+  </si>
+  <si>
+    <t>109-1848</t>
+  </si>
+  <si>
+    <t>109-1851</t>
+  </si>
+  <si>
+    <t>109-1852</t>
+  </si>
+  <si>
+    <t>109-1855</t>
+  </si>
+  <si>
+    <t>109-1863</t>
+  </si>
+  <si>
+    <t>109-1864</t>
+  </si>
+  <si>
+    <t>109-1880</t>
+  </si>
+  <si>
+    <t>109-1882</t>
+  </si>
+  <si>
+    <t>109-1911</t>
+  </si>
+  <si>
+    <t>109-1925</t>
+  </si>
+  <si>
+    <t>109-1954</t>
+  </si>
+  <si>
+    <t>109-1972</t>
+  </si>
+  <si>
+    <t>109-1990</t>
+  </si>
+  <si>
+    <t>109-2002</t>
+  </si>
+  <si>
+    <t>109-2015</t>
+  </si>
+  <si>
+    <t>109-0773</t>
+  </si>
+  <si>
+    <t>109-0806</t>
+  </si>
+  <si>
+    <t>109-0678</t>
+  </si>
+  <si>
+    <t>109-0705</t>
+  </si>
+  <si>
+    <t>109-0723</t>
+  </si>
+  <si>
+    <t>109-0734</t>
+  </si>
+  <si>
+    <t>109-0836</t>
+  </si>
+  <si>
+    <t>109-2031</t>
+  </si>
+  <si>
+    <t>109-2032</t>
+  </si>
+  <si>
+    <t>109-2034</t>
+  </si>
+  <si>
+    <t>109-2071</t>
+  </si>
+  <si>
+    <t>109-2079</t>
+  </si>
+  <si>
+    <t>109-2116</t>
+  </si>
+  <si>
+    <t>109-2325</t>
+  </si>
+  <si>
+    <t>109-2425</t>
+  </si>
+  <si>
+    <t>109-2430</t>
+  </si>
+  <si>
+    <t>109-1816</t>
+  </si>
+  <si>
+    <t>109-2279</t>
+  </si>
+  <si>
+    <t>DENS-093</t>
+  </si>
+  <si>
+    <t>DENS-124</t>
+  </si>
+  <si>
+    <t>DENS-OB-145</t>
+  </si>
+  <si>
+    <t>DENS-167</t>
+  </si>
+  <si>
+    <t>DENS-177</t>
+  </si>
+  <si>
+    <t>DENS-187</t>
+  </si>
+  <si>
+    <t>PP396279_2021-12-16</t>
+  </si>
+  <si>
+    <t>PP396280_2021-11-29</t>
+  </si>
+  <si>
+    <t>PP406368_2022-01-18</t>
+  </si>
+  <si>
+    <t>PP406369_2022-02-16</t>
+  </si>
+  <si>
+    <t>PP406370_2022-02-22</t>
+  </si>
+  <si>
+    <t>PP406371_2022-02-23</t>
+  </si>
+  <si>
+    <t>PP406372_2022-04-06</t>
+  </si>
+  <si>
+    <t>PP406373_2022-04-06</t>
+  </si>
+  <si>
+    <t>PP406374_2022-04-20</t>
+  </si>
+  <si>
+    <t>PP406375_2022-05-17</t>
+  </si>
+  <si>
+    <t>PP406376_2022-05-18</t>
+  </si>
+  <si>
+    <t>PP406447_2022-05-23</t>
+  </si>
+  <si>
+    <t>PP406448_2022-05-23</t>
+  </si>
+  <si>
+    <t>PP406449_2022-05-23</t>
+  </si>
+  <si>
+    <t>PP406450_2022-05-23</t>
+  </si>
+  <si>
+    <t>PP406451_2022-05-23</t>
+  </si>
+  <si>
+    <t>PP406452_2022-05-26</t>
+  </si>
+  <si>
+    <t>PP406453_2022-05-26</t>
+  </si>
+  <si>
+    <t>PP406454_2022-05-30</t>
+  </si>
+  <si>
+    <t>PP406455_2022-05-30</t>
+  </si>
+  <si>
+    <t>PP411227_2022-06-01</t>
+  </si>
+  <si>
+    <t>PP411228_2022-06-01</t>
+  </si>
+  <si>
+    <t>PP411229_2022-06-01</t>
+  </si>
+  <si>
+    <t>PP411230_2022-06-07</t>
+  </si>
+  <si>
+    <t>PP411231_2022-06-07</t>
+  </si>
+  <si>
+    <t>PP411232_2022-06-07</t>
+  </si>
+  <si>
+    <t>PP411233_2022-06-07</t>
+  </si>
+  <si>
+    <t>PP411234_2022-06-07</t>
+  </si>
+  <si>
+    <t>PP411235_2022-06-07</t>
+  </si>
+  <si>
+    <t>PP411249_2022-06-10</t>
+  </si>
+  <si>
+    <t>PP411250_2022-06-10</t>
+  </si>
+  <si>
+    <t>PP411251_2022-06-16</t>
+  </si>
+  <si>
+    <t>PP411252_2022-06-20</t>
+  </si>
+  <si>
+    <t>PP411253_2022-06-23</t>
+  </si>
+  <si>
+    <t>PP411254_2022-06-27</t>
+  </si>
+  <si>
+    <t>PP411255_2022-06-29</t>
+  </si>
+  <si>
+    <t>PP411256_2022-07-01</t>
+  </si>
+  <si>
+    <t>PP411257_2022-07-05</t>
+  </si>
+  <si>
+    <t>PP439574_2021-08-31</t>
+  </si>
+  <si>
+    <t>PP439575_2021-09-24</t>
+  </si>
+  <si>
+    <t>PP439576_2021-05-19</t>
+  </si>
+  <si>
+    <t>PP439577_2021-06-12</t>
+  </si>
+  <si>
+    <t>PP439578_2021-06-24</t>
+  </si>
+  <si>
+    <t>PP439579_2021-07-07</t>
+  </si>
+  <si>
+    <t>PP439580_2021-10-12</t>
+  </si>
+  <si>
+    <t>PP439581_2022-07-06</t>
+  </si>
+  <si>
+    <t>PP439582_2022-07-07</t>
+  </si>
+  <si>
+    <t>PP446688_2022-07-07</t>
+  </si>
+  <si>
+    <t>PP446689_2022-07-15</t>
+  </si>
+  <si>
+    <t>PP446690_2022-07-18</t>
+  </si>
+  <si>
+    <t>PP446691_2022-07-22</t>
+  </si>
+  <si>
+    <t>PP446692_2022-09-05</t>
+  </si>
+  <si>
+    <t>PP446693_2022-10-06</t>
+  </si>
+  <si>
+    <t>PP446694_2022-10-10</t>
+  </si>
+  <si>
+    <t>PP469533_2022-05-30</t>
+  </si>
+  <si>
+    <t>PP469534_2022-08-24</t>
+  </si>
+  <si>
+    <t>PP470598_2022-06-10</t>
+  </si>
+  <si>
+    <t>PP470599_2022-06-02</t>
+  </si>
+  <si>
+    <t>PP470600_2022-07-01</t>
+  </si>
+  <si>
+    <t>PP470601_2022-07-23</t>
+  </si>
+  <si>
+    <t>PP470602_2022-08-15</t>
+  </si>
+  <si>
+    <t>PP470603_2022-08-04</t>
+  </si>
+  <si>
+    <t>Duplicate of OP999336. Listed in GenBank as a duplicated sequence. Not included in phylogenetic analyses.</t>
+  </si>
+  <si>
+    <t>Duplicate of OL414757. Listed in GenBank as a duplicated sequence. Not included in phylogenetic analyses.</t>
+  </si>
+  <si>
+    <t>Duplicate of OL414758. Listed in GenBank as a duplicated sequence. Not included in phylogenetic analyses.</t>
+  </si>
+  <si>
+    <t>Duplicate of OL414731. Listed in GenBank as the lead in a series of two duplicated sequence. This is the one included in phylogenetic analyses.</t>
+  </si>
+  <si>
+    <t>Duplicate of OP999339. Listed in GenBank as the lead in a series of two duplicated sequence. This is the one included in phylogenetic analyses.</t>
+  </si>
+  <si>
+    <t>Duplicate of OQ000263. Listed in GenBank as the lead in a series of two duplicated sequence. This is the one included in phylogenetic analyses.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1322,8 +1901,15 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1334,6 +1920,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1349,12 +1941,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,15 +2282,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC295F-11F4-244E-B305-2C6A0519CBFB}">
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="L125" sqref="L125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1740,16 +2334,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4">
-        <v>43669</v>
+        <v>43696</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1761,30 +2355,30 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>11.455</v>
+        <v>11.4755</v>
       </c>
       <c r="I2">
-        <v>104.5076</v>
+        <v>104.5454</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4">
-        <v>43672</v>
+        <v>43669</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1796,30 +2390,30 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>11.465299999999999</v>
+        <v>11.455</v>
       </c>
       <c r="I3">
-        <v>104.5312</v>
+        <v>104.5076</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4">
-        <v>43539</v>
+        <v>43703</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1831,30 +2425,30 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>11.463200000000001</v>
+        <v>11.4678</v>
       </c>
       <c r="I4">
-        <v>104.52979999999999</v>
+        <v>104.5461</v>
       </c>
       <c r="J4">
-        <v>6.6383561640000002</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4">
-        <v>43877</v>
+        <v>43654</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -1866,30 +2460,30 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>11.465590000000001</v>
+        <v>11.4643</v>
       </c>
       <c r="I5">
-        <v>104.52968199999999</v>
+        <v>104.5432</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>4.736986301</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4">
-        <v>43609</v>
+        <v>43666</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -1901,31 +2495,30 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>11.4718</v>
+        <v>11.4678</v>
       </c>
       <c r="I6">
-        <v>104.5275</v>
+        <v>104.5427</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="3"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D7" s="4">
-        <v>43650</v>
+        <v>43658</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1937,30 +2530,30 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>11.468500000000001</v>
+        <v>11.4688</v>
       </c>
       <c r="I7">
-        <v>104.5223</v>
+        <v>104.5458</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4">
-        <v>43557</v>
+        <v>43640</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1972,13 +2565,13 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>11.4712</v>
+        <v>11.4674</v>
       </c>
       <c r="I8">
-        <v>104.5275</v>
+        <v>104.5391</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -1986,16 +2579,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4">
-        <v>43630</v>
+        <v>43638</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -2007,13 +2600,13 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>11.4695</v>
+        <v>11.467700000000001</v>
       </c>
       <c r="I9">
-        <v>104.536</v>
+        <v>104.5376</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -2021,16 +2614,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4">
-        <v>43777</v>
+        <v>43630</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -2042,13 +2635,13 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>11.469082</v>
+        <v>11.4695</v>
       </c>
       <c r="I10">
-        <v>104.53958</v>
+        <v>104.536</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -2056,16 +2649,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4">
-        <v>43616</v>
+        <v>43557</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2077,30 +2670,30 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>11.4733</v>
+        <v>11.4712</v>
       </c>
       <c r="I11">
-        <v>104.54770000000001</v>
+        <v>104.5275</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4">
-        <v>43638</v>
+        <v>43609</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -2112,30 +2705,31 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>11.467700000000001</v>
+        <v>11.4718</v>
       </c>
       <c r="I12">
-        <v>104.5376</v>
+        <v>104.5275</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="D13" s="4">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -2147,30 +2741,30 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>11.4672</v>
+        <v>11.5853</v>
       </c>
       <c r="I13">
-        <v>104.539</v>
+        <v>104.52719999999999</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D14" s="4">
-        <v>43640</v>
+        <v>43691</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -2181,14 +2775,14 @@
       <c r="G14" t="s">
         <v>5</v>
       </c>
-      <c r="H14">
-        <v>11.4674</v>
-      </c>
-      <c r="I14">
-        <v>104.5391</v>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
@@ -2196,16 +2790,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="D15" s="4">
-        <v>43705</v>
+        <v>43688</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -2217,13 +2811,13 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>11.4688</v>
+        <v>11.401199999999999</v>
       </c>
       <c r="I15">
-        <v>104.54519999999999</v>
+        <v>104.5831</v>
       </c>
       <c r="J15">
-        <v>2.043835616</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
         <v>13</v>
@@ -2231,613 +2825,611 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43686</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>11.4582</v>
+      </c>
+      <c r="I16">
+        <v>104.5689</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43685</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>11.4673</v>
+      </c>
+      <c r="I17">
+        <v>104.5436</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43685</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>11.4657</v>
+      </c>
+      <c r="I18">
+        <v>104.5158</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43684</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>11.4655</v>
+      </c>
+      <c r="I19">
+        <v>104.55459999999999</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43684</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>11.167999999999999</v>
+      </c>
+      <c r="I20">
+        <v>104.1927</v>
+      </c>
+      <c r="J20">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43683</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>11.4254</v>
+      </c>
+      <c r="I21">
+        <v>104.46</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43678</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>11.5436</v>
+      </c>
+      <c r="I22">
+        <v>104.54600000000001</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43677</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>11.470700000000001</v>
+      </c>
+      <c r="I23">
+        <v>104.47580000000001</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43676</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>11.4491</v>
+      </c>
+      <c r="I24">
+        <v>104.49890000000001</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43670</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>11.466900000000001</v>
+      </c>
+      <c r="I25">
+        <v>104.54340000000001</v>
+      </c>
+      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43669</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>11.463200000000001</v>
+      </c>
+      <c r="I26">
+        <v>104.5843</v>
+      </c>
+      <c r="J26">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43879</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>11.456099999999999</v>
+      </c>
+      <c r="I27">
+        <v>104.4661</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43864</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>11.456099999999999</v>
+      </c>
+      <c r="I28">
+        <v>104.4661</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B29" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C29" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D29" s="4">
         <v>43692</v>
       </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16">
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29">
         <v>11.4688</v>
       </c>
-      <c r="I16">
+      <c r="I29">
         <v>104.54519999999999</v>
       </c>
-      <c r="J16">
+      <c r="J29">
         <v>9.0082191779999992</v>
       </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="4">
-        <v>43703</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>11.4678</v>
-      </c>
-      <c r="I17">
-        <v>104.5461</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43648</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>11.4688</v>
-      </c>
-      <c r="I18">
-        <v>104.5458</v>
-      </c>
-      <c r="J18">
-        <v>8.6273972600000004</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="4">
-        <v>43704</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>11.467967</v>
-      </c>
-      <c r="I19">
-        <v>104.54555499999999</v>
-      </c>
-      <c r="J19">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="4">
-        <v>43658</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>11.4688</v>
-      </c>
-      <c r="I20">
-        <v>104.5458</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43667</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>11.4747</v>
+      </c>
+      <c r="I30">
+        <v>104.54219999999999</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43685</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>11.469799999999999</v>
+      </c>
+      <c r="I31">
+        <v>104.5412</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>91</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D32" s="4">
         <v>43629</v>
       </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21">
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32">
         <v>11.4724</v>
       </c>
-      <c r="I21">
+      <c r="I32">
         <v>104.5498</v>
       </c>
-      <c r="J21">
+      <c r="J32">
         <v>8</v>
       </c>
-      <c r="K21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="4">
-        <v>43666</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <v>11.4678</v>
-      </c>
-      <c r="I22">
-        <v>104.5427</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="4">
-        <v>43685</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>11.469799999999999</v>
-      </c>
-      <c r="I23">
-        <v>104.5412</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="4">
-        <v>43654</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>11.4643</v>
-      </c>
-      <c r="I24">
-        <v>104.5432</v>
-      </c>
-      <c r="J24">
-        <v>4.736986301</v>
-      </c>
-      <c r="K24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="4">
-        <v>43667</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>11.4747</v>
-      </c>
-      <c r="I25">
-        <v>104.54219999999999</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="4">
-        <v>43707</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>11.475417999999999</v>
-      </c>
-      <c r="I26">
-        <v>104.54422700000001</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="4">
-        <v>43696</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>11.4755</v>
-      </c>
-      <c r="I27">
-        <v>104.5454</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="4">
-        <v>43669</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <v>11.463200000000001</v>
-      </c>
-      <c r="I28">
-        <v>104.5843</v>
-      </c>
-      <c r="J28">
-        <v>37</v>
-      </c>
-      <c r="K28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="4">
-        <v>43670</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>11.466900000000001</v>
-      </c>
-      <c r="I29">
-        <v>104.54340000000001</v>
-      </c>
-      <c r="J29">
-        <v>14</v>
-      </c>
-      <c r="K29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="4">
-        <v>43671</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>11.404299999999999</v>
-      </c>
-      <c r="I30">
-        <v>104.40519999999999</v>
-      </c>
-      <c r="J30">
-        <v>6</v>
-      </c>
-      <c r="K30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="4">
-        <v>43671</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>11.4176</v>
-      </c>
-      <c r="I31">
-        <v>104.54389999999999</v>
-      </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="4">
-        <v>43672</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>11.483700000000001</v>
-      </c>
-      <c r="I32">
-        <v>104.5814</v>
-      </c>
-      <c r="J32">
-        <v>14</v>
-      </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4">
-        <v>43676</v>
+        <v>43616</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -2849,30 +3441,30 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <v>11.4491</v>
+        <v>11.4733</v>
       </c>
       <c r="I33">
-        <v>104.49890000000001</v>
+        <v>104.54770000000001</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D34" s="4">
-        <v>43677</v>
+        <v>43650</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -2884,30 +3476,30 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>11.470700000000001</v>
+        <v>11.468500000000001</v>
       </c>
       <c r="I34">
-        <v>104.47580000000001</v>
+        <v>104.5223</v>
       </c>
       <c r="J34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4">
-        <v>43678</v>
+        <v>43539</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -2919,13 +3511,13 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>11.4452</v>
+        <v>11.463200000000001</v>
       </c>
       <c r="I35">
-        <v>104.584</v>
+        <v>104.52979999999999</v>
       </c>
       <c r="J35">
-        <v>0.66666666699999999</v>
+        <v>6.6383561640000002</v>
       </c>
       <c r="K35" t="s">
         <v>13</v>
@@ -2933,16 +3525,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D36" s="4">
-        <v>43678</v>
+        <v>43672</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -2954,10 +3546,10 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>11.5436</v>
+        <v>11.465299999999999</v>
       </c>
       <c r="I36">
-        <v>104.54600000000001</v>
+        <v>104.5312</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -2968,16 +3560,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="D37" s="4">
-        <v>43683</v>
+        <v>43698</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -2989,13 +3581,13 @@
         <v>5</v>
       </c>
       <c r="H37">
-        <v>11.4254</v>
+        <v>11.475199999999999</v>
       </c>
       <c r="I37">
-        <v>104.46</v>
+        <v>104.5919</v>
       </c>
       <c r="J37">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
         <v>6</v>
@@ -3003,16 +3595,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D38" s="4">
-        <v>43684</v>
+        <v>43695</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -3024,30 +3616,30 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>11.167999999999999</v>
+        <v>11.4702</v>
       </c>
       <c r="I38">
-        <v>104.1927</v>
+        <v>104.5337</v>
       </c>
       <c r="J38">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="D39" s="4">
-        <v>43684</v>
+        <v>43695</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
@@ -3059,13 +3651,13 @@
         <v>5</v>
       </c>
       <c r="H39">
-        <v>11.4655</v>
+        <v>11.4838</v>
       </c>
       <c r="I39">
-        <v>104.55459999999999</v>
+        <v>104.58029999999999</v>
       </c>
       <c r="J39">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s">
         <v>6</v>
@@ -3108,16 +3700,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4">
-        <v>43685</v>
+        <v>43678</v>
       </c>
       <c r="E41" t="s">
         <v>36</v>
@@ -3129,13 +3721,13 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>11.4657</v>
+        <v>11.4452</v>
       </c>
       <c r="I41">
-        <v>104.5158</v>
+        <v>104.584</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0.66666666699999999</v>
       </c>
       <c r="K41" t="s">
         <v>13</v>
@@ -3143,16 +3735,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D42" s="4">
-        <v>43685</v>
+        <v>43672</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -3164,13 +3756,13 @@
         <v>5</v>
       </c>
       <c r="H42">
-        <v>11.4673</v>
+        <v>11.483700000000001</v>
       </c>
       <c r="I42">
-        <v>104.5436</v>
+        <v>104.5814</v>
       </c>
       <c r="J42">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
@@ -3178,16 +3770,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D43" s="4">
-        <v>43686</v>
+        <v>43671</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -3199,30 +3791,30 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <v>11.4079</v>
+        <v>11.4176</v>
       </c>
       <c r="I43">
-        <v>104.4063</v>
+        <v>104.54389999999999</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="D44" s="4">
-        <v>43688</v>
+        <v>44025</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -3234,13 +3826,13 @@
         <v>5</v>
       </c>
       <c r="H44">
-        <v>11.4162</v>
+        <v>11.41697544</v>
       </c>
       <c r="I44">
-        <v>104.4593</v>
+        <v>104.5180891</v>
       </c>
       <c r="J44">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
@@ -3248,16 +3840,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="D45" s="4">
-        <v>43686</v>
+        <v>43648</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -3269,13 +3861,13 @@
         <v>5</v>
       </c>
       <c r="H45">
-        <v>11.4582</v>
+        <v>11.4688</v>
       </c>
       <c r="I45">
-        <v>104.5689</v>
+        <v>104.5458</v>
       </c>
       <c r="J45">
-        <v>8</v>
+        <v>8.6273972600000004</v>
       </c>
       <c r="K45" t="s">
         <v>6</v>
@@ -3283,16 +3875,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="D46" s="4">
-        <v>43688</v>
+        <v>43894</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -3304,13 +3896,13 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>11.401199999999999</v>
+        <v>11.5961</v>
       </c>
       <c r="I46">
-        <v>104.5831</v>
+        <v>104.2483</v>
       </c>
       <c r="J46">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K46" t="s">
         <v>13</v>
@@ -3318,16 +3910,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D47" s="4">
-        <v>43691</v>
+        <v>43688</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -3338,14 +3930,14 @@
       <c r="G47" t="s">
         <v>5</v>
       </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
+      <c r="H47">
+        <v>11.4162</v>
+      </c>
+      <c r="I47">
+        <v>104.4593</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K47" t="s">
         <v>13</v>
@@ -3353,16 +3945,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="D48" s="4">
-        <v>43692</v>
+        <v>43647</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
@@ -3374,30 +3966,30 @@
         <v>5</v>
       </c>
       <c r="H48">
-        <v>11.5853</v>
+        <v>11.4672</v>
       </c>
       <c r="I48">
-        <v>104.52719999999999</v>
+        <v>104.539</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="D49" s="4">
-        <v>43695</v>
+        <v>43705</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
@@ -3409,30 +4001,30 @@
         <v>5</v>
       </c>
       <c r="H49">
-        <v>11.4838</v>
+        <v>11.4688</v>
       </c>
       <c r="I49">
-        <v>104.58029999999999</v>
+        <v>104.54519999999999</v>
       </c>
       <c r="J49">
-        <v>14</v>
+        <v>2.043835616</v>
       </c>
       <c r="K49" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D50" s="4">
-        <v>43695</v>
+        <v>43671</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
@@ -3444,13 +4036,13 @@
         <v>5</v>
       </c>
       <c r="H50">
-        <v>11.4702</v>
+        <v>11.404299999999999</v>
       </c>
       <c r="I50">
-        <v>104.5337</v>
+        <v>104.40519999999999</v>
       </c>
       <c r="J50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K50" t="s">
         <v>6</v>
@@ -3458,16 +4050,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4">
-        <v>43698</v>
+        <v>43686</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
@@ -3479,13 +4071,13 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>11.475199999999999</v>
+        <v>11.4079</v>
       </c>
       <c r="I51">
-        <v>104.5919</v>
+        <v>104.4063</v>
       </c>
       <c r="J51">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K51" t="s">
         <v>6</v>
@@ -3528,158 +4120,159 @@
     </row>
     <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="4">
+        <v>43704</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>11.467967</v>
+      </c>
+      <c r="I53">
+        <v>104.54555499999999</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="4">
+        <v>43877</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>11.465590000000001</v>
+      </c>
+      <c r="I54">
+        <v>104.52968199999999</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>187</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>188</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D55" s="4">
         <v>43795</v>
       </c>
-      <c r="E53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
         <v>16</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I55" t="s">
         <v>16</v>
       </c>
-      <c r="J53">
-        <v>3</v>
-      </c>
-      <c r="K53" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>190</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>191</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D56" s="4">
         <v>43816</v>
       </c>
-      <c r="E54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54">
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56">
         <v>11.467164970000001</v>
       </c>
-      <c r="I54">
+      <c r="I56">
         <v>104.5009879</v>
       </c>
-      <c r="J54">
+      <c r="J56">
         <v>8</v>
       </c>
-      <c r="K54" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="4">
-        <v>43819</v>
-      </c>
-      <c r="E55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55">
-        <v>11.492548859999999</v>
-      </c>
-      <c r="I55">
-        <v>104.5165399</v>
-      </c>
-      <c r="J55">
-        <v>8</v>
-      </c>
-      <c r="K55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C56" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" s="4">
-        <v>43825</v>
-      </c>
-      <c r="E56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56">
-        <v>11.492548859999999</v>
-      </c>
-      <c r="I56">
-        <v>104.5165399</v>
-      </c>
-      <c r="J56">
-        <v>6</v>
-      </c>
       <c r="K56" t="s">
         <v>13</v>
       </c>
+      <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D57" s="4">
-        <v>43864</v>
+        <v>43825</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
@@ -3691,30 +4284,30 @@
         <v>5</v>
       </c>
       <c r="H57">
-        <v>11.456099999999999</v>
+        <v>11.492548859999999</v>
       </c>
       <c r="I57">
-        <v>104.4661</v>
+        <v>104.5165399</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="D58" s="4">
-        <v>43879</v>
+        <v>43707</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
@@ -3726,30 +4319,31 @@
         <v>5</v>
       </c>
       <c r="H58">
-        <v>11.456099999999999</v>
+        <v>11.475417999999999</v>
       </c>
       <c r="I58">
-        <v>104.4661</v>
+        <v>104.54422700000001</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K58" t="s">
         <v>13</v>
       </c>
+      <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D59" s="4">
-        <v>43894</v>
+        <v>43819</v>
       </c>
       <c r="E59" t="s">
         <v>36</v>
@@ -3761,30 +4355,30 @@
         <v>5</v>
       </c>
       <c r="H59">
-        <v>11.5961</v>
+        <v>11.492548859999999</v>
       </c>
       <c r="I59">
-        <v>104.2483</v>
+        <v>104.5165399</v>
       </c>
       <c r="J59">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K59" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="D60" s="4">
-        <v>44025</v>
+        <v>43777</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -3796,13 +4390,13 @@
         <v>5</v>
       </c>
       <c r="H60">
-        <v>11.41697544</v>
+        <v>11.469082</v>
       </c>
       <c r="I60">
-        <v>104.5180891</v>
+        <v>104.53958</v>
       </c>
       <c r="J60">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="K60" t="s">
         <v>13</v>
@@ -3957,18 +4551,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="D65" s="4">
-        <v>43697</v>
+        <v>43676</v>
       </c>
       <c r="E65" t="s">
         <v>3</v>
@@ -3980,97 +4574,97 @@
         <v>5</v>
       </c>
       <c r="H65">
-        <v>11.4574</v>
+        <v>11.4696</v>
       </c>
       <c r="I65">
-        <v>104.52670000000001</v>
+        <v>104.5364</v>
       </c>
       <c r="J65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="D66" s="4">
-        <v>43661</v>
+        <v>43648</v>
       </c>
       <c r="E66" t="s">
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
         <v>5</v>
       </c>
       <c r="H66">
-        <v>11.4567</v>
+        <v>11.4703</v>
       </c>
       <c r="I66">
-        <v>104.5132</v>
+        <v>104.52760000000001</v>
       </c>
       <c r="J66">
+        <v>3.1698630140000001</v>
+      </c>
+      <c r="K66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" s="4">
+        <v>43675</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>11.464499999999999</v>
+      </c>
+      <c r="I67">
+        <v>104.5325</v>
+      </c>
+      <c r="J67">
         <v>7</v>
       </c>
-      <c r="K66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>231</v>
-      </c>
-      <c r="B67" t="s">
-        <v>232</v>
-      </c>
-      <c r="C67" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" s="4">
-        <v>43671</v>
-      </c>
-      <c r="E67" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" t="s">
-        <v>230</v>
-      </c>
-      <c r="G67" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67">
-        <v>11.453799999999999</v>
-      </c>
-      <c r="I67">
-        <v>104.50579999999999</v>
-      </c>
-      <c r="J67">
-        <v>6</v>
-      </c>
       <c r="K67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D68" s="4">
         <v>43671</v>
@@ -4085,30 +4679,30 @@
         <v>5</v>
       </c>
       <c r="H68">
-        <v>11.453799999999999</v>
+        <v>11.465299999999999</v>
       </c>
       <c r="I68">
-        <v>104.50579999999999</v>
+        <v>104.5311</v>
       </c>
       <c r="J68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D69" s="4">
-        <v>43559</v>
+        <v>43671</v>
       </c>
       <c r="E69" t="s">
         <v>3</v>
@@ -4120,100 +4714,100 @@
         <v>5</v>
       </c>
       <c r="H69">
-        <v>11.4559</v>
+        <v>11.453799999999999</v>
       </c>
       <c r="I69">
-        <v>104.51309999999999</v>
+        <v>104.50579999999999</v>
       </c>
       <c r="J69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K69" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D70" s="4">
-        <v>43639</v>
+        <v>43671</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
       </c>
       <c r="H70">
-        <v>11.450200000000001</v>
+        <v>11.453799999999999</v>
       </c>
       <c r="I70">
-        <v>104.5154</v>
+        <v>104.50579999999999</v>
       </c>
       <c r="J70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="D71" s="4">
-        <v>43671</v>
+        <v>43699</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="G71" t="s">
         <v>5</v>
       </c>
       <c r="H71">
-        <v>11.465299999999999</v>
+        <v>11.385899999999999</v>
       </c>
       <c r="I71">
-        <v>104.5311</v>
+        <v>104.4419</v>
       </c>
       <c r="J71">
         <v>9</v>
       </c>
       <c r="K71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="D72" s="4">
-        <v>43675</v>
+        <v>43698</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
@@ -4225,10 +4819,10 @@
         <v>5</v>
       </c>
       <c r="H72">
-        <v>11.464499999999999</v>
+        <v>11.4537</v>
       </c>
       <c r="I72">
-        <v>104.5325</v>
+        <v>104.5424</v>
       </c>
       <c r="J72">
         <v>7</v>
@@ -4237,18 +4831,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="D73" s="4">
-        <v>43693</v>
+        <v>43697</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -4260,30 +4854,30 @@
         <v>5</v>
       </c>
       <c r="H73">
-        <v>11.467000000000001</v>
+        <v>11.4589</v>
       </c>
       <c r="I73">
-        <v>104.5316</v>
+        <v>104.5498</v>
       </c>
       <c r="J73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="C74" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="D74" s="4">
-        <v>43669</v>
+        <v>43686</v>
       </c>
       <c r="E74" t="s">
         <v>3</v>
@@ -4295,30 +4889,30 @@
         <v>5</v>
       </c>
       <c r="H74">
-        <v>11.459099999999999</v>
+        <v>11.4513</v>
       </c>
       <c r="I74">
-        <v>104.5354</v>
+        <v>104.49169999999999</v>
       </c>
       <c r="J74">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="B75" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C75" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="D75" s="4">
-        <v>43686</v>
+        <v>43684</v>
       </c>
       <c r="E75" t="s">
         <v>3</v>
@@ -4330,30 +4924,30 @@
         <v>5</v>
       </c>
       <c r="H75">
-        <v>11.470843</v>
+        <v>11.440200000000001</v>
       </c>
       <c r="I75">
-        <v>104.529892</v>
+        <v>104.5609</v>
       </c>
       <c r="J75">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="D76" s="4">
-        <v>43643</v>
+        <v>43683</v>
       </c>
       <c r="E76" t="s">
         <v>3</v>
@@ -4365,100 +4959,100 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>11.4716</v>
+        <v>11.4407</v>
       </c>
       <c r="I76">
-        <v>104.5277</v>
+        <v>104.56140000000001</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D77" s="4">
-        <v>43669</v>
+        <v>43675</v>
       </c>
       <c r="E77" t="s">
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
       </c>
       <c r="H77">
-        <v>11.471299999999999</v>
+        <v>11.455856320000001</v>
       </c>
       <c r="I77">
-        <v>104.5278</v>
+        <v>104.6322838</v>
       </c>
       <c r="J77">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D78" s="4">
-        <v>43665</v>
+        <v>43671</v>
       </c>
       <c r="E78" t="s">
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="G78" t="s">
         <v>5</v>
       </c>
       <c r="H78">
-        <v>11.471299999999999</v>
+        <v>11.4452</v>
       </c>
       <c r="I78">
-        <v>104.5278</v>
+        <v>104.5936</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D79" s="4">
-        <v>43648</v>
+        <v>43670</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -4470,65 +5064,71 @@
         <v>5</v>
       </c>
       <c r="H79">
-        <v>11.4703</v>
+        <v>11.5418</v>
       </c>
       <c r="I79">
-        <v>104.52760000000001</v>
+        <v>104.44450000000001</v>
       </c>
       <c r="J79">
-        <v>3.1698630140000001</v>
+        <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>270</v>
-      </c>
-      <c r="B80" t="s">
-        <v>271</v>
-      </c>
-      <c r="C80" t="s">
-        <v>272</v>
-      </c>
-      <c r="D80" s="4">
-        <v>43644</v>
-      </c>
-      <c r="E80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" t="s">
-        <v>5</v>
-      </c>
-      <c r="H80">
-        <v>11.4703</v>
-      </c>
-      <c r="I80">
-        <v>104.52760000000001</v>
-      </c>
-      <c r="J80">
-        <v>9</v>
-      </c>
-      <c r="K80" t="s">
-        <v>13</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44078</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="1">
+        <v>11.5281</v>
+      </c>
+      <c r="I80" s="1">
+        <v>104.5183</v>
+      </c>
+      <c r="J80" s="1">
+        <v>13</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>273</v>
+        <v>384</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="C81" t="s">
-        <v>275</v>
+        <v>386</v>
       </c>
       <c r="D81" s="4">
-        <v>43636</v>
+        <v>44071</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -4540,30 +5140,30 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>11.4719</v>
+        <v>11.447100000000001</v>
       </c>
       <c r="I81">
-        <v>104.52670000000001</v>
+        <v>104.5236</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K81" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="D82" s="4">
-        <v>43676</v>
+        <v>44053</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -4575,83 +5175,83 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>11.4696</v>
+        <v>11.398400000000001</v>
       </c>
       <c r="I82">
-        <v>104.5364</v>
+        <v>104.5224</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K82" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="C83" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="D83" s="4">
-        <v>43669</v>
+        <v>44012</v>
       </c>
       <c r="E83" t="s">
         <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="G83" t="s">
         <v>5</v>
       </c>
       <c r="H83">
-        <v>11.4533</v>
+        <v>11.291700000000001</v>
       </c>
       <c r="I83">
-        <v>104.5801</v>
+        <v>104.2381</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K83" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="C84" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="D84" s="4">
-        <v>43670</v>
+        <v>44000</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="G84" t="s">
         <v>5</v>
       </c>
       <c r="H84">
-        <v>11.5418</v>
+        <v>11.291700000000001</v>
       </c>
       <c r="I84">
-        <v>104.44450000000001</v>
+        <v>104.2381</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K84" t="s">
         <v>13</v>
@@ -4659,16 +5259,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="B85" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="C85" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="D85" s="4">
-        <v>43671</v>
+        <v>43999</v>
       </c>
       <c r="E85" t="s">
         <v>3</v>
@@ -4680,48 +5280,48 @@
         <v>5</v>
       </c>
       <c r="H85">
-        <v>11.4406</v>
+        <v>11.9091</v>
       </c>
       <c r="I85">
-        <v>104.5613</v>
+        <v>104.13330000000001</v>
       </c>
       <c r="J85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K85" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B86" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D86" s="4">
-        <v>43671</v>
+        <v>43636</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
         <v>5</v>
       </c>
       <c r="H86">
-        <v>11.4452</v>
+        <v>11.4719</v>
       </c>
       <c r="I86">
-        <v>104.5936</v>
+        <v>104.52670000000001</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K86" t="s">
         <v>6</v>
@@ -4729,86 +5329,86 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="D87" s="4">
-        <v>43672</v>
+        <v>43665</v>
       </c>
       <c r="E87" t="s">
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
       </c>
       <c r="H87">
-        <v>11.441000000000001</v>
+        <v>11.471299999999999</v>
       </c>
       <c r="I87">
-        <v>104.5621</v>
+        <v>104.5278</v>
       </c>
       <c r="J87">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K87" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C88" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D88" s="4">
-        <v>43675</v>
+        <v>43669</v>
       </c>
       <c r="E88" t="s">
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
         <v>5</v>
       </c>
       <c r="H88">
-        <v>11.455856320000001</v>
+        <v>11.471299999999999</v>
       </c>
       <c r="I88">
-        <v>104.6322838</v>
+        <v>104.5278</v>
       </c>
       <c r="J88">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K88" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="D89" s="4">
-        <v>43679</v>
+        <v>43643</v>
       </c>
       <c r="E89" t="s">
         <v>3</v>
@@ -4820,30 +5420,30 @@
         <v>5</v>
       </c>
       <c r="H89">
-        <v>11.4504</v>
+        <v>11.4716</v>
       </c>
       <c r="I89">
-        <v>104.49209999999999</v>
+        <v>104.5277</v>
       </c>
       <c r="J89">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K89" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="C90" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="D90" s="4">
-        <v>43683</v>
+        <v>43669</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
@@ -4855,30 +5455,30 @@
         <v>5</v>
       </c>
       <c r="H90">
-        <v>11.4404</v>
+        <v>11.459099999999999</v>
       </c>
       <c r="I90">
-        <v>104.5616</v>
+        <v>104.5354</v>
       </c>
       <c r="J90">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K90" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="D91" s="4">
-        <v>43683</v>
+        <v>43639</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -4890,13 +5490,13 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>11.4407</v>
+        <v>11.450200000000001</v>
       </c>
       <c r="I91">
-        <v>104.56140000000001</v>
+        <v>104.5154</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K91" t="s">
         <v>6</v>
@@ -4904,69 +5504,69 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="D92" s="4">
-        <v>43684</v>
+        <v>43559</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="G92" t="s">
         <v>5</v>
       </c>
       <c r="H92">
-        <v>11.440200000000001</v>
+        <v>11.4559</v>
       </c>
       <c r="I92">
-        <v>104.5609</v>
+        <v>104.51309999999999</v>
       </c>
       <c r="J92">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K92" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="B93" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="D93" s="4">
-        <v>43686</v>
+        <v>43661</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="G93" t="s">
         <v>5</v>
       </c>
       <c r="H93">
-        <v>11.4513</v>
+        <v>11.4567</v>
       </c>
       <c r="I93">
-        <v>104.49169999999999</v>
+        <v>104.5132</v>
       </c>
       <c r="J93">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K93" t="s">
         <v>13</v>
@@ -4974,16 +5574,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D94" s="4">
-        <v>43697</v>
+        <v>43683</v>
       </c>
       <c r="E94" t="s">
         <v>3</v>
@@ -4995,13 +5595,13 @@
         <v>5</v>
       </c>
       <c r="H94">
-        <v>11.4589</v>
+        <v>11.4404</v>
       </c>
       <c r="I94">
-        <v>104.5498</v>
+        <v>104.5616</v>
       </c>
       <c r="J94">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K94" t="s">
         <v>13</v>
@@ -5009,16 +5609,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B95" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="D95" s="4">
-        <v>43698</v>
+        <v>43998</v>
       </c>
       <c r="E95" t="s">
         <v>3</v>
@@ -5030,30 +5630,30 @@
         <v>5</v>
       </c>
       <c r="H95">
-        <v>11.4537</v>
+        <v>11.9091</v>
       </c>
       <c r="I95">
-        <v>104.5424</v>
+        <v>104.13330000000001</v>
       </c>
       <c r="J95">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K95" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B96" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="D96" s="4">
-        <v>43699</v>
+        <v>43697</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
@@ -5065,65 +5665,65 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>11.385899999999999</v>
+        <v>11.4574</v>
       </c>
       <c r="I96">
-        <v>104.4419</v>
+        <v>104.52670000000001</v>
       </c>
       <c r="J96">
         <v>9</v>
       </c>
       <c r="K96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C97" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="D97" s="4">
-        <v>43721</v>
+        <v>43999</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="G97" t="s">
         <v>5</v>
       </c>
       <c r="H97">
-        <v>11.457380799999999</v>
+        <v>11.6082</v>
       </c>
       <c r="I97">
-        <v>104.53436720000001</v>
+        <v>104.14660000000001</v>
       </c>
       <c r="J97">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K97" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C98" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="D98" s="4">
-        <v>43768</v>
+        <v>44017</v>
       </c>
       <c r="E98" t="s">
         <v>3</v>
@@ -5135,30 +5735,30 @@
         <v>5</v>
       </c>
       <c r="H98">
-        <v>11.45607987</v>
+        <v>11.398400000000001</v>
       </c>
       <c r="I98">
-        <v>104.5184355</v>
+        <v>104.5224</v>
       </c>
       <c r="J98">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K98" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="C99" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="D99" s="4">
-        <v>43769</v>
+        <v>44026</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
@@ -5170,30 +5770,30 @@
         <v>5</v>
       </c>
       <c r="H99">
-        <v>11.492934180000001</v>
+        <v>11.398400000000001</v>
       </c>
       <c r="I99">
-        <v>104.5660158</v>
+        <v>104.5224</v>
       </c>
       <c r="J99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K99" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="D100" s="4">
-        <v>43984</v>
+        <v>44041</v>
       </c>
       <c r="E100" t="s">
         <v>3</v>
@@ -5205,30 +5805,30 @@
         <v>5</v>
       </c>
       <c r="H100">
-        <v>11.57884717</v>
+        <v>11.4611</v>
       </c>
       <c r="I100">
-        <v>104.2344271</v>
+        <v>104.50660000000001</v>
       </c>
       <c r="J100">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="C101" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="D101" s="4">
-        <v>43985</v>
+        <v>44052</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
@@ -5240,10 +5840,10 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>11.595792360000001</v>
+        <v>11.474500000000001</v>
       </c>
       <c r="I101">
-        <v>104.2305655</v>
+        <v>104.5915</v>
       </c>
       <c r="J101">
         <v>9</v>
@@ -5252,18 +5852,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="B102" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="C102" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="D102" s="4">
-        <v>43998</v>
+        <v>44053</v>
       </c>
       <c r="E102" t="s">
         <v>3</v>
@@ -5275,30 +5875,30 @@
         <v>5</v>
       </c>
       <c r="H102">
-        <v>11.9091</v>
+        <v>11.457100000000001</v>
       </c>
       <c r="I102">
-        <v>104.13330000000001</v>
+        <v>104.5385</v>
       </c>
       <c r="J102">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K102" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B103" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="D103" s="4">
-        <v>43999</v>
+        <v>44056</v>
       </c>
       <c r="E103" t="s">
         <v>3</v>
@@ -5310,30 +5910,30 @@
         <v>5</v>
       </c>
       <c r="H103">
-        <v>11.6082</v>
+        <v>11.4611</v>
       </c>
       <c r="I103">
-        <v>104.14660000000001</v>
+        <v>104.50660000000001</v>
       </c>
       <c r="J103">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K103" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="B104" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="C104" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="D104" s="4">
-        <v>43999</v>
+        <v>44072</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
@@ -5345,10 +5945,10 @@
         <v>5</v>
       </c>
       <c r="H104">
-        <v>11.9091</v>
+        <v>11.398400000000001</v>
       </c>
       <c r="I104">
-        <v>104.13330000000001</v>
+        <v>104.5224</v>
       </c>
       <c r="J104">
         <v>8</v>
@@ -5357,193 +5957,205 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>345</v>
-      </c>
-      <c r="B105" t="s">
-        <v>346</v>
-      </c>
-      <c r="C105" t="s">
-        <v>347</v>
-      </c>
-      <c r="D105" s="4">
-        <v>44000</v>
-      </c>
-      <c r="E105" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105" t="s">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2">
+        <v>44075</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="1">
+        <v>11.398400000000001</v>
+      </c>
+      <c r="I105" s="1">
+        <v>104.5224</v>
+      </c>
+      <c r="J105" s="1">
+        <v>10</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2">
+        <v>44097</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="1">
+        <v>11.471</v>
+      </c>
+      <c r="I106" s="1">
+        <v>104.5527</v>
+      </c>
+      <c r="J106" s="1">
+        <v>13</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="4">
+        <v>43644</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <v>11.4703</v>
+      </c>
+      <c r="I107">
+        <v>104.52760000000001</v>
+      </c>
+      <c r="J107">
+        <v>9</v>
+      </c>
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" t="s">
+        <v>251</v>
+      </c>
+      <c r="D108" s="4">
+        <v>43693</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108">
+        <v>11.467000000000001</v>
+      </c>
+      <c r="I108">
+        <v>104.5316</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" s="4">
+        <v>43672</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" t="s">
         <v>230</v>
       </c>
-      <c r="G105" t="s">
-        <v>5</v>
-      </c>
-      <c r="H105">
-        <v>11.291700000000001</v>
-      </c>
-      <c r="I105">
-        <v>104.2381</v>
-      </c>
-      <c r="J105">
-        <v>7</v>
-      </c>
-      <c r="K105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>348</v>
-      </c>
-      <c r="B106" t="s">
-        <v>349</v>
-      </c>
-      <c r="C106" t="s">
-        <v>350</v>
-      </c>
-      <c r="D106" s="4">
-        <v>44012</v>
-      </c>
-      <c r="E106" t="s">
-        <v>3</v>
-      </c>
-      <c r="F106" t="s">
-        <v>230</v>
-      </c>
-      <c r="G106" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106">
-        <v>11.291700000000001</v>
-      </c>
-      <c r="I106">
-        <v>104.2381</v>
-      </c>
-      <c r="J106">
-        <v>10</v>
-      </c>
-      <c r="K106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>351</v>
-      </c>
-      <c r="B107" t="s">
-        <v>352</v>
-      </c>
-      <c r="C107" t="s">
-        <v>353</v>
-      </c>
-      <c r="D107" s="4">
-        <v>44017</v>
-      </c>
-      <c r="E107" t="s">
-        <v>3</v>
-      </c>
-      <c r="F107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107">
-        <v>11.398400000000001</v>
-      </c>
-      <c r="I107">
-        <v>104.5224</v>
-      </c>
-      <c r="J107">
-        <v>10</v>
-      </c>
-      <c r="K107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>354</v>
-      </c>
-      <c r="B108" t="s">
-        <v>355</v>
-      </c>
-      <c r="C108" t="s">
-        <v>356</v>
-      </c>
-      <c r="D108" s="4">
-        <v>44026</v>
-      </c>
-      <c r="E108" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108">
-        <v>11.398400000000001</v>
-      </c>
-      <c r="I108">
-        <v>104.5224</v>
-      </c>
-      <c r="J108">
-        <v>10</v>
-      </c>
-      <c r="K108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>357</v>
-      </c>
-      <c r="B109" t="s">
-        <v>358</v>
-      </c>
-      <c r="C109" t="s">
-        <v>359</v>
-      </c>
-      <c r="D109" s="4">
-        <v>44041</v>
-      </c>
-      <c r="E109" t="s">
-        <v>3</v>
-      </c>
-      <c r="F109" t="s">
-        <v>4</v>
-      </c>
       <c r="G109" t="s">
         <v>5</v>
       </c>
       <c r="H109">
-        <v>11.4611</v>
+        <v>11.441000000000001</v>
       </c>
       <c r="I109">
-        <v>104.50660000000001</v>
+        <v>104.5621</v>
       </c>
       <c r="J109">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="B110" t="s">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="C110" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="D110" s="4">
-        <v>44042</v>
+        <v>43669</v>
       </c>
       <c r="E110" t="s">
         <v>3</v>
@@ -5555,30 +6167,30 @@
         <v>5</v>
       </c>
       <c r="H110">
-        <v>11.472704569999999</v>
+        <v>11.4533</v>
       </c>
       <c r="I110">
-        <v>104.5788093</v>
+        <v>104.5801</v>
       </c>
       <c r="J110">
         <v>5</v>
       </c>
       <c r="K110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="C111" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="D111" s="4">
-        <v>44053</v>
+        <v>43679</v>
       </c>
       <c r="E111" t="s">
         <v>3</v>
@@ -5590,10 +6202,10 @@
         <v>5</v>
       </c>
       <c r="H111">
-        <v>11.474500000000001</v>
+        <v>11.4504</v>
       </c>
       <c r="I111">
-        <v>104.5915</v>
+        <v>104.49209999999999</v>
       </c>
       <c r="J111">
         <v>12</v>
@@ -5602,53 +6214,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B112" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C112" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="D112" s="4">
+        <v>44070</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>11.6877</v>
+      </c>
+      <c r="I112">
+        <v>104.1305</v>
+      </c>
+      <c r="J112">
+        <v>6</v>
+      </c>
+      <c r="K112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>363</v>
+      </c>
+      <c r="B113" t="s">
+        <v>364</v>
+      </c>
+      <c r="C113" t="s">
+        <v>365</v>
+      </c>
+      <c r="D113" s="4">
         <v>44053</v>
-      </c>
-      <c r="E112" t="s">
-        <v>3</v>
-      </c>
-      <c r="F112" t="s">
-        <v>4</v>
-      </c>
-      <c r="G112" t="s">
-        <v>5</v>
-      </c>
-      <c r="H112">
-        <v>11.398400000000001</v>
-      </c>
-      <c r="I112">
-        <v>104.5224</v>
-      </c>
-      <c r="J112">
-        <v>13</v>
-      </c>
-      <c r="K112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>369</v>
-      </c>
-      <c r="B113" t="s">
-        <v>370</v>
-      </c>
-      <c r="C113" t="s">
-        <v>371</v>
-      </c>
-      <c r="D113" s="4">
-        <v>44052</v>
       </c>
       <c r="E113" t="s">
         <v>3</v>
@@ -5666,24 +6278,24 @@
         <v>104.5915</v>
       </c>
       <c r="J113">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K113" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="B114" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="C114" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="D114" s="4">
-        <v>44053</v>
+        <v>43671</v>
       </c>
       <c r="E114" t="s">
         <v>3</v>
@@ -5695,19 +6307,19 @@
         <v>5</v>
       </c>
       <c r="H114">
-        <v>11.457100000000001</v>
+        <v>11.4406</v>
       </c>
       <c r="I114">
-        <v>104.5385</v>
+        <v>104.5613</v>
       </c>
       <c r="J114">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K114" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>375</v>
       </c>
@@ -5742,123 +6354,141 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>378</v>
-      </c>
-      <c r="B116" t="s">
-        <v>379</v>
-      </c>
-      <c r="C116" t="s">
-        <v>380</v>
-      </c>
-      <c r="D116" s="4">
-        <v>44056</v>
-      </c>
-      <c r="E116" t="s">
-        <v>3</v>
-      </c>
-      <c r="F116" t="s">
-        <v>4</v>
-      </c>
-      <c r="G116" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116">
-        <v>11.4611</v>
-      </c>
-      <c r="I116">
-        <v>104.50660000000001</v>
-      </c>
-      <c r="J116">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>381</v>
-      </c>
-      <c r="B117" t="s">
-        <v>382</v>
-      </c>
-      <c r="C117" t="s">
-        <v>383</v>
-      </c>
-      <c r="D117" s="4">
-        <v>44070</v>
-      </c>
-      <c r="E117" t="s">
-        <v>3</v>
-      </c>
-      <c r="F117" t="s">
-        <v>4</v>
-      </c>
-      <c r="G117" t="s">
-        <v>5</v>
-      </c>
-      <c r="H117">
-        <v>11.6877</v>
-      </c>
-      <c r="I117">
-        <v>104.1305</v>
-      </c>
-      <c r="J117">
-        <v>6</v>
-      </c>
-      <c r="K117" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>384</v>
-      </c>
-      <c r="B118" t="s">
-        <v>385</v>
-      </c>
-      <c r="C118" t="s">
-        <v>386</v>
-      </c>
-      <c r="D118" s="4">
-        <v>44071</v>
-      </c>
-      <c r="E118" t="s">
-        <v>3</v>
-      </c>
-      <c r="F118" t="s">
-        <v>4</v>
-      </c>
-      <c r="G118" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118">
-        <v>11.447100000000001</v>
-      </c>
-      <c r="I118">
-        <v>104.5236</v>
-      </c>
-      <c r="J118">
-        <v>3</v>
-      </c>
-      <c r="K118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="2">
+        <v>44089</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>11.527830979999999</v>
+      </c>
+      <c r="I116" s="1">
+        <v>104.5188455</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="2">
+        <v>44089</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>11.36253997</v>
+      </c>
+      <c r="I117" s="1">
+        <v>104.4557471</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="2">
+        <v>44089</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="1">
+        <v>11.473588120000001</v>
+      </c>
+      <c r="I118" s="1">
+        <v>104.5526594</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>387</v>
+        <v>255</v>
       </c>
       <c r="B119" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="C119" t="s">
-        <v>389</v>
+        <v>257</v>
       </c>
       <c r="D119" s="4">
-        <v>44072</v>
+        <v>43686</v>
       </c>
       <c r="E119" t="s">
         <v>3</v>
@@ -5870,296 +6500,293 @@
         <v>5</v>
       </c>
       <c r="H119">
-        <v>11.398400000000001</v>
+        <v>11.470843</v>
       </c>
       <c r="I119">
-        <v>104.5224</v>
+        <v>104.529892</v>
       </c>
       <c r="J119">
+        <v>9</v>
+      </c>
+      <c r="K119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>321</v>
+      </c>
+      <c r="B120" t="s">
+        <v>322</v>
+      </c>
+      <c r="C120" t="s">
+        <v>323</v>
+      </c>
+      <c r="D120" s="4">
+        <v>43721</v>
+      </c>
+      <c r="E120" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" t="s">
+        <v>230</v>
+      </c>
+      <c r="G120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <v>11.457380799999999</v>
+      </c>
+      <c r="I120">
+        <v>104.53436720000001</v>
+      </c>
+      <c r="J120">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>324</v>
+      </c>
+      <c r="B121" t="s">
+        <v>325</v>
+      </c>
+      <c r="C121" t="s">
+        <v>326</v>
+      </c>
+      <c r="D121" s="4">
+        <v>43768</v>
+      </c>
+      <c r="E121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>11.45607987</v>
+      </c>
+      <c r="I121">
+        <v>104.5184355</v>
+      </c>
+      <c r="J121">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" t="s">
+        <v>328</v>
+      </c>
+      <c r="C122" t="s">
+        <v>329</v>
+      </c>
+      <c r="D122" s="4">
+        <v>43769</v>
+      </c>
+      <c r="E122" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s">
+        <v>5</v>
+      </c>
+      <c r="H122">
+        <v>11.492934180000001</v>
+      </c>
+      <c r="I122">
+        <v>104.5660158</v>
+      </c>
+      <c r="J122">
         <v>8</v>
       </c>
-      <c r="K119" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="K122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>333</v>
+      </c>
+      <c r="B123" t="s">
+        <v>334</v>
+      </c>
+      <c r="C123" t="s">
+        <v>335</v>
+      </c>
+      <c r="D123" s="4">
+        <v>43985</v>
+      </c>
+      <c r="E123" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123">
+        <v>11.595792360000001</v>
+      </c>
+      <c r="I123">
+        <v>104.2305655</v>
+      </c>
+      <c r="J123">
         <v>9</v>
       </c>
-      <c r="D120" s="2">
-        <v>44075</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H120" s="1">
-        <v>11.398400000000001</v>
-      </c>
-      <c r="I120" s="1">
-        <v>104.5224</v>
-      </c>
-      <c r="J120" s="1">
-        <v>10</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L120" s="1" t="s">
+      <c r="K123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" t="s">
+        <v>362</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44042</v>
+      </c>
+      <c r="E124" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>11.472704569999999</v>
+      </c>
+      <c r="I124">
+        <v>104.5788093</v>
+      </c>
+      <c r="J124">
+        <v>5</v>
+      </c>
+      <c r="K124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>330</v>
+      </c>
+      <c r="B125" t="s">
+        <v>331</v>
+      </c>
+      <c r="C125" t="s">
+        <v>332</v>
+      </c>
+      <c r="D125" s="4">
+        <v>43984</v>
+      </c>
+      <c r="E125" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125">
+        <v>11.57884717</v>
+      </c>
+      <c r="I125">
+        <v>104.2344271</v>
+      </c>
+      <c r="J125">
+        <v>29</v>
+      </c>
+      <c r="K125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>547</v>
+      </c>
+      <c r="B126" t="s">
+        <v>485</v>
+      </c>
+      <c r="C126" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" s="2">
-        <v>44089</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="1">
-        <v>11.36253997</v>
-      </c>
-      <c r="I121" s="1">
-        <v>104.4557471</v>
-      </c>
-      <c r="J121" s="1" t="s">
+      <c r="D126" s="4">
+        <v>44546</v>
+      </c>
+      <c r="E126" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126">
+        <v>11.494991580000001</v>
+      </c>
+      <c r="I126">
+        <v>104.562996</v>
+      </c>
+      <c r="J126">
+        <v>12</v>
+      </c>
+      <c r="K126" t="s">
+        <v>13</v>
+      </c>
+      <c r="L126" t="s">
         <v>16</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L121" s="1" t="s">
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>548</v>
+      </c>
+      <c r="B127" t="s">
+        <v>486</v>
+      </c>
+      <c r="C127" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" s="2">
-        <v>44078</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H122" s="1">
-        <v>11.5281</v>
-      </c>
-      <c r="I122" s="1">
-        <v>104.5183</v>
-      </c>
-      <c r="J122" s="1">
-        <v>13</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="2">
-        <v>44089</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H123" s="1">
-        <v>11.527830979999999</v>
-      </c>
-      <c r="I123" s="1">
-        <v>104.5188455</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2">
-        <v>44097</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H124" s="1">
-        <v>11.471</v>
-      </c>
-      <c r="I124" s="1">
-        <v>104.5527</v>
-      </c>
-      <c r="J124" s="1">
-        <v>13</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="2">
-        <v>44089</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H125" s="1">
-        <v>11.473588120000001</v>
-      </c>
-      <c r="I125" s="1">
-        <v>104.5526594</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>390</v>
-      </c>
-      <c r="B126" t="s">
-        <v>419</v>
-      </c>
-      <c r="C126" t="s">
-        <v>391</v>
-      </c>
-      <c r="D126" s="4">
-        <v>43653</v>
-      </c>
-      <c r="E126" t="s">
-        <v>392</v>
-      </c>
-      <c r="F126" t="s">
-        <v>392</v>
-      </c>
-      <c r="G126" t="s">
-        <v>5</v>
-      </c>
-      <c r="J126">
-        <v>9</v>
-      </c>
-      <c r="K126" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>393</v>
-      </c>
-      <c r="B127" t="s">
-        <v>394</v>
-      </c>
-      <c r="C127" t="s">
-        <v>395</v>
-      </c>
       <c r="D127" s="4">
-        <v>43684</v>
+        <v>44529</v>
       </c>
       <c r="E127" t="s">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="G127" t="s">
         <v>5</v>
+      </c>
+      <c r="H127">
+        <v>11.508363429999999</v>
+      </c>
+      <c r="I127">
+        <v>104.5488908</v>
       </c>
       <c r="J127">
         <v>8</v>
@@ -6167,130 +6794,151 @@
       <c r="K127" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>396</v>
+        <v>549</v>
       </c>
       <c r="B128" t="s">
-        <v>397</v>
+        <v>487</v>
       </c>
       <c r="C128" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="D128" s="4">
-        <v>43759</v>
+        <v>44579</v>
       </c>
       <c r="E128" t="s">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="G128" t="s">
         <v>5</v>
+      </c>
+      <c r="H128">
+        <v>11.5153439</v>
+      </c>
+      <c r="I128">
+        <v>104.56001190000001</v>
       </c>
       <c r="J128">
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="L128" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>399</v>
+        <v>550</v>
       </c>
       <c r="B129" t="s">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="C129" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="D129" s="4">
-        <v>44046</v>
+        <v>44608</v>
       </c>
       <c r="E129" t="s">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="F129" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="G129" t="s">
         <v>5</v>
       </c>
+      <c r="H129">
+        <v>11.51418879</v>
+      </c>
+      <c r="I129">
+        <v>104.5439757</v>
+      </c>
       <c r="J129">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K129" t="s">
         <v>13</v>
+      </c>
+      <c r="L129" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>402</v>
+        <v>551</v>
       </c>
       <c r="B130" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="C130" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D130" s="4">
-        <v>44606</v>
+        <v>44614</v>
       </c>
       <c r="E130" t="s">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="F130" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="G130" t="s">
         <v>5</v>
       </c>
       <c r="H130">
-        <v>11.58098994</v>
+        <v>11.44455015</v>
       </c>
       <c r="I130">
-        <v>104.8382381</v>
+        <v>104.49207079999999</v>
       </c>
       <c r="J130">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K130" t="s">
         <v>6</v>
       </c>
       <c r="L130" t="s">
-        <v>405</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>406</v>
+        <v>552</v>
       </c>
       <c r="B131" t="s">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="C131" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="D131" s="4">
-        <v>44697</v>
+        <v>44615</v>
       </c>
       <c r="E131" t="s">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="F131" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="G131" t="s">
         <v>5</v>
       </c>
       <c r="H131">
-        <v>11.31145499</v>
+        <v>11.44455015</v>
       </c>
       <c r="I131">
-        <v>104.43565049999999</v>
+        <v>104.49207079999999</v>
       </c>
       <c r="J131">
         <v>12</v>
@@ -6304,34 +6952,34 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>409</v>
+        <v>553</v>
       </c>
       <c r="B132" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="C132" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D132" s="4">
-        <v>44743</v>
+        <v>44657</v>
       </c>
       <c r="E132" t="s">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="G132" t="s">
         <v>5</v>
       </c>
       <c r="H132">
-        <v>11.4226616</v>
+        <v>11.458323740000001</v>
       </c>
       <c r="I132">
-        <v>104.6505231</v>
+        <v>104.5358876</v>
       </c>
       <c r="J132">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K132" t="s">
         <v>13</v>
@@ -6342,82 +6990,2405 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>412</v>
+        <v>554</v>
       </c>
       <c r="B133" t="s">
-        <v>413</v>
+        <v>492</v>
       </c>
       <c r="C133" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="D133" s="4">
-        <v>44750</v>
+        <v>44657</v>
       </c>
       <c r="E133" t="s">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="G133" t="s">
         <v>5</v>
       </c>
       <c r="H133">
-        <v>11.482962759999999</v>
+        <v>11.541415069999999</v>
       </c>
       <c r="I133">
-        <v>104.61355330000001</v>
+        <v>104.8981563</v>
       </c>
       <c r="J133">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K133" t="s">
         <v>13</v>
       </c>
       <c r="L133" t="s">
-        <v>16</v>
+        <v>405</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>555</v>
+      </c>
+      <c r="B134" t="s">
+        <v>493</v>
+      </c>
+      <c r="C134" t="s">
+        <v>428</v>
+      </c>
+      <c r="D134" s="4">
+        <v>44671</v>
+      </c>
+      <c r="E134" t="s">
+        <v>3</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>5</v>
+      </c>
+      <c r="H134">
+        <v>11.521108099999999</v>
+      </c>
+      <c r="I134">
+        <v>104.56235049999999</v>
+      </c>
+      <c r="J134">
+        <v>13</v>
+      </c>
+      <c r="K134" t="s">
+        <v>13</v>
+      </c>
+      <c r="L134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>556</v>
+      </c>
+      <c r="B135" t="s">
+        <v>494</v>
+      </c>
+      <c r="C135" t="s">
+        <v>429</v>
+      </c>
+      <c r="D135" s="4">
+        <v>44698</v>
+      </c>
+      <c r="E135" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H135">
+        <v>11.529648699999999</v>
+      </c>
+      <c r="I135">
+        <v>104.4974665</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135" t="s">
+        <v>13</v>
+      </c>
+      <c r="L135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>557</v>
+      </c>
+      <c r="B136" t="s">
+        <v>495</v>
+      </c>
+      <c r="C136" t="s">
+        <v>430</v>
+      </c>
+      <c r="D136" s="4">
+        <v>44699</v>
+      </c>
+      <c r="E136" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" t="s">
+        <v>5</v>
+      </c>
+      <c r="H136">
+        <v>11.473417510000001</v>
+      </c>
+      <c r="I136">
+        <v>104.5904707</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
+        <v>13</v>
+      </c>
+      <c r="L136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>558</v>
+      </c>
+      <c r="B137" t="s">
+        <v>496</v>
+      </c>
+      <c r="C137" t="s">
+        <v>431</v>
+      </c>
+      <c r="D137" s="4">
+        <v>44704</v>
+      </c>
+      <c r="E137" t="s">
+        <v>3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137">
+        <v>11.529648699999999</v>
+      </c>
+      <c r="I137">
+        <v>104.4974665</v>
+      </c>
+      <c r="J137">
+        <v>12</v>
+      </c>
+      <c r="K137" t="s">
+        <v>6</v>
+      </c>
+      <c r="L137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>559</v>
+      </c>
+      <c r="B138" t="s">
+        <v>497</v>
+      </c>
+      <c r="C138" t="s">
+        <v>432</v>
+      </c>
+      <c r="D138" s="4">
+        <v>44704</v>
+      </c>
+      <c r="E138" t="s">
+        <v>3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138">
+        <v>11.529648699999999</v>
+      </c>
+      <c r="I138">
+        <v>104.4974665</v>
+      </c>
+      <c r="J138">
+        <v>9</v>
+      </c>
+      <c r="K138" t="s">
+        <v>6</v>
+      </c>
+      <c r="L138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>560</v>
+      </c>
+      <c r="B139" t="s">
+        <v>498</v>
+      </c>
+      <c r="C139" t="s">
+        <v>433</v>
+      </c>
+      <c r="D139" s="4">
+        <v>44704</v>
+      </c>
+      <c r="E139" t="s">
+        <v>3</v>
+      </c>
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139">
+        <v>11.529648699999999</v>
+      </c>
+      <c r="I139">
+        <v>104.4974665</v>
+      </c>
+      <c r="J139">
+        <v>9</v>
+      </c>
+      <c r="K139" t="s">
+        <v>6</v>
+      </c>
+      <c r="L139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>561</v>
+      </c>
+      <c r="B140" t="s">
+        <v>499</v>
+      </c>
+      <c r="C140" t="s">
+        <v>434</v>
+      </c>
+      <c r="D140" s="4">
+        <v>44704</v>
+      </c>
+      <c r="E140" t="s">
+        <v>3</v>
+      </c>
+      <c r="F140" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <v>11.458323740000001</v>
+      </c>
+      <c r="I140">
+        <v>104.5358876</v>
+      </c>
+      <c r="J140">
+        <v>13</v>
+      </c>
+      <c r="K140" t="s">
+        <v>6</v>
+      </c>
+      <c r="L140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>562</v>
+      </c>
+      <c r="B141" t="s">
+        <v>500</v>
+      </c>
+      <c r="C141" t="s">
+        <v>435</v>
+      </c>
+      <c r="D141" s="4">
+        <v>44704</v>
+      </c>
+      <c r="E141" t="s">
+        <v>3</v>
+      </c>
+      <c r="F141" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141">
+        <v>11.529648699999999</v>
+      </c>
+      <c r="I141">
+        <v>104.4974665</v>
+      </c>
+      <c r="J141">
+        <v>10</v>
+      </c>
+      <c r="K141" t="s">
+        <v>13</v>
+      </c>
+      <c r="L141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>563</v>
+      </c>
+      <c r="B142" t="s">
+        <v>501</v>
+      </c>
+      <c r="C142" t="s">
+        <v>436</v>
+      </c>
+      <c r="D142" s="4">
+        <v>44707</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>11.521108099999999</v>
+      </c>
+      <c r="I142">
+        <v>104.56235049999999</v>
+      </c>
+      <c r="J142">
+        <v>12</v>
+      </c>
+      <c r="K142" t="s">
+        <v>6</v>
+      </c>
+      <c r="L142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>564</v>
+      </c>
+      <c r="B143" t="s">
+        <v>502</v>
+      </c>
+      <c r="C143" t="s">
+        <v>437</v>
+      </c>
+      <c r="D143" s="4">
+        <v>44707</v>
+      </c>
+      <c r="E143" t="s">
+        <v>3</v>
+      </c>
+      <c r="F143" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>11.43791785</v>
+      </c>
+      <c r="I143">
+        <v>104.52225230000001</v>
+      </c>
+      <c r="J143">
+        <v>12</v>
+      </c>
+      <c r="K143" t="s">
+        <v>6</v>
+      </c>
+      <c r="L143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>565</v>
+      </c>
+      <c r="B144" t="s">
+        <v>503</v>
+      </c>
+      <c r="C144" t="s">
+        <v>438</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44711</v>
+      </c>
+      <c r="E144" t="s">
+        <v>3</v>
+      </c>
+      <c r="F144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>11.50815774</v>
+      </c>
+      <c r="I144">
+        <v>104.4952031</v>
+      </c>
+      <c r="J144">
+        <v>4</v>
+      </c>
+      <c r="K144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>566</v>
+      </c>
+      <c r="B145" t="s">
+        <v>504</v>
+      </c>
+      <c r="C145" t="s">
+        <v>439</v>
+      </c>
+      <c r="D145" s="4">
+        <v>44711</v>
+      </c>
+      <c r="E145" t="s">
+        <v>3</v>
+      </c>
+      <c r="F145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145">
+        <v>11.458323740000001</v>
+      </c>
+      <c r="I145">
+        <v>104.5358876</v>
+      </c>
+      <c r="J145">
+        <v>13</v>
+      </c>
+      <c r="K145" t="s">
+        <v>6</v>
+      </c>
+      <c r="L145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>567</v>
+      </c>
+      <c r="B146" t="s">
+        <v>505</v>
+      </c>
+      <c r="C146" t="s">
+        <v>440</v>
+      </c>
+      <c r="D146" s="4">
+        <v>44713</v>
+      </c>
+      <c r="E146" t="s">
+        <v>3</v>
+      </c>
+      <c r="F146" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146">
+        <v>11.446499149999999</v>
+      </c>
+      <c r="I146">
+        <v>104.6570304</v>
+      </c>
+      <c r="J146">
+        <v>10</v>
+      </c>
+      <c r="K146" t="s">
+        <v>13</v>
+      </c>
+      <c r="L146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>568</v>
+      </c>
+      <c r="B147" t="s">
+        <v>506</v>
+      </c>
+      <c r="C147" t="s">
+        <v>441</v>
+      </c>
+      <c r="D147" s="4">
+        <v>44713</v>
+      </c>
+      <c r="E147" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>5</v>
+      </c>
+      <c r="H147">
+        <v>11.46208075</v>
+      </c>
+      <c r="I147">
+        <v>104.5559138</v>
+      </c>
+      <c r="J147">
+        <v>10</v>
+      </c>
+      <c r="K147" t="s">
+        <v>6</v>
+      </c>
+      <c r="L147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>569</v>
+      </c>
+      <c r="B148" t="s">
+        <v>507</v>
+      </c>
+      <c r="C148" t="s">
+        <v>442</v>
+      </c>
+      <c r="D148" s="4">
+        <v>44713</v>
+      </c>
+      <c r="E148" t="s">
+        <v>3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148">
+        <v>11.46208075</v>
+      </c>
+      <c r="I148">
+        <v>104.5559138</v>
+      </c>
+      <c r="J148">
+        <v>10</v>
+      </c>
+      <c r="K148" t="s">
+        <v>6</v>
+      </c>
+      <c r="L148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>570</v>
+      </c>
+      <c r="B149" t="s">
+        <v>508</v>
+      </c>
+      <c r="C149" t="s">
+        <v>443</v>
+      </c>
+      <c r="D149" s="4">
+        <v>44719</v>
+      </c>
+      <c r="E149" t="s">
+        <v>3</v>
+      </c>
+      <c r="F149" t="s">
+        <v>4</v>
+      </c>
+      <c r="G149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149">
+        <v>11.48458186</v>
+      </c>
+      <c r="I149">
+        <v>104.55654800000001</v>
+      </c>
+      <c r="J149">
+        <v>7</v>
+      </c>
+      <c r="K149" t="s">
+        <v>13</v>
+      </c>
+      <c r="L149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>571</v>
+      </c>
+      <c r="B150" t="s">
+        <v>509</v>
+      </c>
+      <c r="C150" t="s">
+        <v>444</v>
+      </c>
+      <c r="D150" s="4">
+        <v>44719</v>
+      </c>
+      <c r="E150" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150">
+        <v>11.50153813</v>
+      </c>
+      <c r="I150">
+        <v>104.505833</v>
+      </c>
+      <c r="J150">
+        <v>6</v>
+      </c>
+      <c r="K150" t="s">
+        <v>13</v>
+      </c>
+      <c r="L150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>572</v>
+      </c>
+      <c r="B151" t="s">
+        <v>510</v>
+      </c>
+      <c r="C151" t="s">
+        <v>445</v>
+      </c>
+      <c r="D151" s="4">
+        <v>44719</v>
+      </c>
+      <c r="E151" t="s">
+        <v>3</v>
+      </c>
+      <c r="F151" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>11.44781566</v>
+      </c>
+      <c r="I151">
+        <v>104.6244282</v>
+      </c>
+      <c r="J151">
+        <v>5</v>
+      </c>
+      <c r="K151" t="s">
+        <v>6</v>
+      </c>
+      <c r="L151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>573</v>
+      </c>
+      <c r="B152" t="s">
+        <v>511</v>
+      </c>
+      <c r="C152" t="s">
+        <v>446</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44719</v>
+      </c>
+      <c r="E152" t="s">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>11.457138</v>
+      </c>
+      <c r="I152">
+        <v>104.5467536</v>
+      </c>
+      <c r="J152">
+        <v>5</v>
+      </c>
+      <c r="K152" t="s">
+        <v>13</v>
+      </c>
+      <c r="L152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>574</v>
+      </c>
+      <c r="B153" t="s">
+        <v>512</v>
+      </c>
+      <c r="C153" t="s">
+        <v>447</v>
+      </c>
+      <c r="D153" s="4">
+        <v>44719</v>
+      </c>
+      <c r="E153" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153">
+        <v>11.529648699999999</v>
+      </c>
+      <c r="I153">
+        <v>104.4974665</v>
+      </c>
+      <c r="J153">
+        <v>11</v>
+      </c>
+      <c r="K153" t="s">
+        <v>13</v>
+      </c>
+      <c r="L153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>575</v>
+      </c>
+      <c r="B154" t="s">
+        <v>513</v>
+      </c>
+      <c r="C154" t="s">
+        <v>448</v>
+      </c>
+      <c r="D154" s="4">
+        <v>44719</v>
+      </c>
+      <c r="E154" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154">
+        <v>11.473588120000001</v>
+      </c>
+      <c r="I154">
+        <v>104.5526594</v>
+      </c>
+      <c r="J154">
+        <v>3</v>
+      </c>
+      <c r="K154" t="s">
+        <v>6</v>
+      </c>
+      <c r="L154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>576</v>
+      </c>
+      <c r="B155" t="s">
+        <v>514</v>
+      </c>
+      <c r="C155" t="s">
+        <v>449</v>
+      </c>
+      <c r="D155" s="4">
+        <v>44722</v>
+      </c>
+      <c r="E155" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155">
+        <v>11.46208075</v>
+      </c>
+      <c r="I155">
+        <v>104.5559138</v>
+      </c>
+      <c r="J155">
+        <v>13</v>
+      </c>
+      <c r="K155" t="s">
+        <v>6</v>
+      </c>
+      <c r="L155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>577</v>
+      </c>
+      <c r="B156" t="s">
+        <v>515</v>
+      </c>
+      <c r="C156" t="s">
+        <v>450</v>
+      </c>
+      <c r="D156" s="4">
+        <v>44722</v>
+      </c>
+      <c r="E156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F156" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>5</v>
+      </c>
+      <c r="H156">
+        <v>11.54601634</v>
+      </c>
+      <c r="I156">
+        <v>104.4285742</v>
+      </c>
+      <c r="J156">
+        <v>7</v>
+      </c>
+      <c r="K156" t="s">
+        <v>6</v>
+      </c>
+      <c r="L156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>578</v>
+      </c>
+      <c r="B157" t="s">
+        <v>516</v>
+      </c>
+      <c r="C157" t="s">
+        <v>451</v>
+      </c>
+      <c r="D157" s="4">
+        <v>44728</v>
+      </c>
+      <c r="E157" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>5</v>
+      </c>
+      <c r="H157">
+        <v>11.70471423</v>
+      </c>
+      <c r="I157">
+        <v>104.7706201</v>
+      </c>
+      <c r="J157">
+        <v>31</v>
+      </c>
+      <c r="K157" t="s">
+        <v>6</v>
+      </c>
+      <c r="L157" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>579</v>
+      </c>
+      <c r="B158" t="s">
+        <v>517</v>
+      </c>
+      <c r="C158" t="s">
+        <v>452</v>
+      </c>
+      <c r="D158" s="4">
+        <v>44732</v>
+      </c>
+      <c r="E158" t="s">
+        <v>3</v>
+      </c>
+      <c r="F158" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
+        <v>5</v>
+      </c>
+      <c r="H158">
+        <v>11.3770738</v>
+      </c>
+      <c r="I158">
+        <v>104.51147469999999</v>
+      </c>
+      <c r="J158">
+        <v>13</v>
+      </c>
+      <c r="K158" t="s">
+        <v>6</v>
+      </c>
+      <c r="L158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>580</v>
+      </c>
+      <c r="B159" t="s">
+        <v>518</v>
+      </c>
+      <c r="C159" t="s">
+        <v>453</v>
+      </c>
+      <c r="D159" s="4">
+        <v>44735</v>
+      </c>
+      <c r="E159" t="s">
+        <v>3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s">
+        <v>5</v>
+      </c>
+      <c r="H159">
+        <v>11.5111992</v>
+      </c>
+      <c r="I159">
+        <v>104.72776210000001</v>
+      </c>
+      <c r="J159">
+        <v>6</v>
+      </c>
+      <c r="K159" t="s">
+        <v>13</v>
+      </c>
+      <c r="L159" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>581</v>
+      </c>
+      <c r="B160" t="s">
+        <v>519</v>
+      </c>
+      <c r="C160" t="s">
+        <v>454</v>
+      </c>
+      <c r="D160" s="4">
+        <v>44739</v>
+      </c>
+      <c r="E160" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160">
+        <v>11.5396597</v>
+      </c>
+      <c r="I160">
+        <v>104.53548840000001</v>
+      </c>
+      <c r="J160">
+        <v>9</v>
+      </c>
+      <c r="K160" t="s">
+        <v>6</v>
+      </c>
+      <c r="L160" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>582</v>
+      </c>
+      <c r="B161" t="s">
+        <v>520</v>
+      </c>
+      <c r="C161" t="s">
+        <v>455</v>
+      </c>
+      <c r="D161" s="4">
+        <v>44741</v>
+      </c>
+      <c r="E161" t="s">
+        <v>3</v>
+      </c>
+      <c r="F161" t="s">
+        <v>230</v>
+      </c>
+      <c r="G161" t="s">
+        <v>5</v>
+      </c>
+      <c r="H161">
+        <v>11.485604739999999</v>
+      </c>
+      <c r="I161">
+        <v>104.7684424</v>
+      </c>
+      <c r="J161">
+        <v>22</v>
+      </c>
+      <c r="K161" t="s">
+        <v>6</v>
+      </c>
+      <c r="L161" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>583</v>
+      </c>
+      <c r="B162" t="s">
+        <v>521</v>
+      </c>
+      <c r="C162" t="s">
+        <v>456</v>
+      </c>
+      <c r="D162" s="4">
+        <v>44743</v>
+      </c>
+      <c r="E162" t="s">
+        <v>3</v>
+      </c>
+      <c r="F162" t="s">
+        <v>4</v>
+      </c>
+      <c r="G162" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162">
+        <v>11.449321279999999</v>
+      </c>
+      <c r="I162">
+        <v>104.5003774</v>
+      </c>
+      <c r="J162">
+        <v>9</v>
+      </c>
+      <c r="K162" t="s">
+        <v>6</v>
+      </c>
+      <c r="L162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>584</v>
+      </c>
+      <c r="B163" t="s">
+        <v>522</v>
+      </c>
+      <c r="C163" t="s">
+        <v>457</v>
+      </c>
+      <c r="D163" s="4">
+        <v>44747</v>
+      </c>
+      <c r="E163" t="s">
+        <v>3</v>
+      </c>
+      <c r="F163" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" t="s">
+        <v>5</v>
+      </c>
+      <c r="H163">
+        <v>11.123664850000001</v>
+      </c>
+      <c r="I163">
+        <v>105.06747369999999</v>
+      </c>
+      <c r="J163">
+        <v>6</v>
+      </c>
+      <c r="K163" t="s">
+        <v>6</v>
+      </c>
+      <c r="L163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>585</v>
+      </c>
+      <c r="B164" t="s">
+        <v>523</v>
+      </c>
+      <c r="C164" t="s">
+        <v>458</v>
+      </c>
+      <c r="D164" s="4">
+        <v>44439</v>
+      </c>
+      <c r="E164" t="s">
+        <v>3</v>
+      </c>
+      <c r="F164" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" t="s">
+        <v>5</v>
+      </c>
+      <c r="H164">
+        <v>11.469539360000001</v>
+      </c>
+      <c r="I164">
+        <v>104.5427272</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>6</v>
+      </c>
+      <c r="L164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>586</v>
+      </c>
+      <c r="B165" t="s">
+        <v>524</v>
+      </c>
+      <c r="C165" t="s">
+        <v>459</v>
+      </c>
+      <c r="D165" s="4">
+        <v>44463</v>
+      </c>
+      <c r="E165" t="s">
+        <v>3</v>
+      </c>
+      <c r="F165" t="s">
+        <v>4</v>
+      </c>
+      <c r="G165" t="s">
+        <v>5</v>
+      </c>
+      <c r="H165">
+        <v>11.525574430000001</v>
+      </c>
+      <c r="I165">
+        <v>104.5497621</v>
+      </c>
+      <c r="J165">
+        <v>13</v>
+      </c>
+      <c r="K165" t="s">
+        <v>6</v>
+      </c>
+      <c r="L165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>587</v>
+      </c>
+      <c r="B166" t="s">
+        <v>525</v>
+      </c>
+      <c r="C166" t="s">
+        <v>460</v>
+      </c>
+      <c r="D166" s="4">
+        <v>44335</v>
+      </c>
+      <c r="E166" t="s">
+        <v>3</v>
+      </c>
+      <c r="F166" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166">
+        <v>11.49837834</v>
+      </c>
+      <c r="I166">
+        <v>104.5599833</v>
+      </c>
+      <c r="J166">
+        <v>13</v>
+      </c>
+      <c r="K166" t="s">
+        <v>13</v>
+      </c>
+      <c r="L166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>588</v>
+      </c>
+      <c r="B167" t="s">
+        <v>526</v>
+      </c>
+      <c r="C167" t="s">
+        <v>461</v>
+      </c>
+      <c r="D167" s="4">
+        <v>44359</v>
+      </c>
+      <c r="E167" t="s">
+        <v>3</v>
+      </c>
+      <c r="F167" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167">
+        <v>11.464719819999999</v>
+      </c>
+      <c r="I167">
+        <v>104.5150653</v>
+      </c>
+      <c r="J167">
+        <v>10</v>
+      </c>
+      <c r="K167" t="s">
+        <v>13</v>
+      </c>
+      <c r="L167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>589</v>
+      </c>
+      <c r="B168" t="s">
+        <v>527</v>
+      </c>
+      <c r="C168" t="s">
+        <v>462</v>
+      </c>
+      <c r="D168" s="4">
+        <v>44371</v>
+      </c>
+      <c r="E168" t="s">
+        <v>3</v>
+      </c>
+      <c r="F168" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" t="s">
+        <v>5</v>
+      </c>
+      <c r="H168">
+        <v>11.49837834</v>
+      </c>
+      <c r="I168">
+        <v>104.5599833</v>
+      </c>
+      <c r="J168">
+        <v>7</v>
+      </c>
+      <c r="K168" t="s">
+        <v>13</v>
+      </c>
+      <c r="L168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>590</v>
+      </c>
+      <c r="B169" t="s">
+        <v>528</v>
+      </c>
+      <c r="C169" t="s">
+        <v>463</v>
+      </c>
+      <c r="D169" s="4">
+        <v>44384</v>
+      </c>
+      <c r="E169" t="s">
+        <v>3</v>
+      </c>
+      <c r="F169" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" t="s">
+        <v>5</v>
+      </c>
+      <c r="H169">
+        <v>11.457620800000001</v>
+      </c>
+      <c r="I169">
+        <v>104.5043234</v>
+      </c>
+      <c r="J169">
+        <v>16</v>
+      </c>
+      <c r="K169" t="s">
+        <v>6</v>
+      </c>
+      <c r="L169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>591</v>
+      </c>
+      <c r="B170" t="s">
+        <v>529</v>
+      </c>
+      <c r="C170" t="s">
+        <v>464</v>
+      </c>
+      <c r="D170" s="4">
+        <v>44481</v>
+      </c>
+      <c r="E170" t="s">
+        <v>3</v>
+      </c>
+      <c r="F170" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170">
+        <v>11.500525870000001</v>
+      </c>
+      <c r="I170">
+        <v>104.5568073</v>
+      </c>
+      <c r="J170">
+        <v>13</v>
+      </c>
+      <c r="K170" t="s">
+        <v>6</v>
+      </c>
+      <c r="L170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>592</v>
+      </c>
+      <c r="B171" t="s">
+        <v>530</v>
+      </c>
+      <c r="C171" t="s">
+        <v>465</v>
+      </c>
+      <c r="D171" s="4">
+        <v>44748</v>
+      </c>
+      <c r="E171" t="s">
+        <v>3</v>
+      </c>
+      <c r="F171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>5</v>
+      </c>
+      <c r="H171">
+        <v>11.521108099999999</v>
+      </c>
+      <c r="I171">
+        <v>104.56235049999999</v>
+      </c>
+      <c r="J171">
+        <v>6</v>
+      </c>
+      <c r="K171" t="s">
+        <v>13</v>
+      </c>
+      <c r="L171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>593</v>
+      </c>
+      <c r="B172" t="s">
+        <v>531</v>
+      </c>
+      <c r="C172" t="s">
+        <v>466</v>
+      </c>
+      <c r="D172" s="4">
+        <v>44749</v>
+      </c>
+      <c r="E172" t="s">
+        <v>3</v>
+      </c>
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172">
+        <v>11.552843770000001</v>
+      </c>
+      <c r="I172">
+        <v>104.5461602</v>
+      </c>
+      <c r="J172">
+        <v>6</v>
+      </c>
+      <c r="K172" t="s">
+        <v>13</v>
+      </c>
+      <c r="L172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>594</v>
+      </c>
+      <c r="B173" t="s">
+        <v>532</v>
+      </c>
+      <c r="C173" t="s">
+        <v>467</v>
+      </c>
+      <c r="D173" s="4">
+        <v>44749</v>
+      </c>
+      <c r="E173" t="s">
+        <v>3</v>
+      </c>
+      <c r="F173" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s">
+        <v>5</v>
+      </c>
+      <c r="H173">
+        <v>11.47249592</v>
+      </c>
+      <c r="I173">
+        <v>104.5309135</v>
+      </c>
+      <c r="J173">
+        <v>9</v>
+      </c>
+      <c r="K173" t="s">
+        <v>13</v>
+      </c>
+      <c r="L173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>595</v>
+      </c>
+      <c r="B174" t="s">
+        <v>533</v>
+      </c>
+      <c r="C174" t="s">
+        <v>468</v>
+      </c>
+      <c r="D174" s="4">
+        <v>44757</v>
+      </c>
+      <c r="E174" t="s">
+        <v>3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174">
+        <v>11.418569160000001</v>
+      </c>
+      <c r="I174">
+        <v>104.4474572</v>
+      </c>
+      <c r="J174">
+        <v>9</v>
+      </c>
+      <c r="K174" t="s">
+        <v>13</v>
+      </c>
+      <c r="L174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>596</v>
+      </c>
+      <c r="B175" t="s">
+        <v>534</v>
+      </c>
+      <c r="C175" t="s">
+        <v>469</v>
+      </c>
+      <c r="D175" s="4">
+        <v>44760</v>
+      </c>
+      <c r="E175" t="s">
+        <v>3</v>
+      </c>
+      <c r="F175" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" t="s">
+        <v>5</v>
+      </c>
+      <c r="H175">
+        <v>11.49111897</v>
+      </c>
+      <c r="I175">
+        <v>104.555685</v>
+      </c>
+      <c r="J175">
+        <v>9</v>
+      </c>
+      <c r="K175" t="s">
+        <v>13</v>
+      </c>
+      <c r="L175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>597</v>
+      </c>
+      <c r="B176" t="s">
+        <v>535</v>
+      </c>
+      <c r="C176" t="s">
+        <v>470</v>
+      </c>
+      <c r="D176" s="4">
+        <v>44764</v>
+      </c>
+      <c r="E176" t="s">
+        <v>3</v>
+      </c>
+      <c r="F176" t="s">
+        <v>4</v>
+      </c>
+      <c r="G176" t="s">
+        <v>5</v>
+      </c>
+      <c r="H176">
+        <v>12.20405193</v>
+      </c>
+      <c r="I176">
+        <v>104.6648283</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" t="s">
+        <v>6</v>
+      </c>
+      <c r="L176" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>598</v>
+      </c>
+      <c r="B177" t="s">
+        <v>536</v>
+      </c>
+      <c r="C177" t="s">
+        <v>471</v>
+      </c>
+      <c r="D177" s="4">
+        <v>44809</v>
+      </c>
+      <c r="E177" t="s">
+        <v>3</v>
+      </c>
+      <c r="F177" t="s">
+        <v>4</v>
+      </c>
+      <c r="G177" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177">
+        <v>11.573346040000001</v>
+      </c>
+      <c r="I177">
+        <v>104.9200659</v>
+      </c>
+      <c r="J177">
+        <v>11</v>
+      </c>
+      <c r="K177" t="s">
+        <v>6</v>
+      </c>
+      <c r="L177" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>599</v>
+      </c>
+      <c r="B178" t="s">
+        <v>537</v>
+      </c>
+      <c r="C178" t="s">
+        <v>472</v>
+      </c>
+      <c r="D178" s="4">
+        <v>44840</v>
+      </c>
+      <c r="E178" t="s">
+        <v>3</v>
+      </c>
+      <c r="F178" t="s">
+        <v>4</v>
+      </c>
+      <c r="G178" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178">
+        <v>11.485822649999999</v>
+      </c>
+      <c r="I178">
+        <v>104.57603</v>
+      </c>
+      <c r="J178">
+        <v>11</v>
+      </c>
+      <c r="K178" t="s">
+        <v>13</v>
+      </c>
+      <c r="L178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>600</v>
+      </c>
+      <c r="B179" t="s">
+        <v>538</v>
+      </c>
+      <c r="C179" t="s">
+        <v>473</v>
+      </c>
+      <c r="D179" s="4">
+        <v>44844</v>
+      </c>
+      <c r="E179" t="s">
+        <v>3</v>
+      </c>
+      <c r="F179" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s">
+        <v>5</v>
+      </c>
+      <c r="H179">
+        <v>11.53021494</v>
+      </c>
+      <c r="I179">
+        <v>104.802447</v>
+      </c>
+      <c r="J179">
+        <v>5</v>
+      </c>
+      <c r="K179" t="s">
+        <v>6</v>
+      </c>
+      <c r="L179" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>601</v>
+      </c>
+      <c r="B180" t="s">
+        <v>539</v>
+      </c>
+      <c r="C180" t="s">
+        <v>474</v>
+      </c>
+      <c r="D180" s="4">
+        <v>44711</v>
+      </c>
+      <c r="E180" t="s">
+        <v>3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>4</v>
+      </c>
+      <c r="G180" t="s">
+        <v>5</v>
+      </c>
+      <c r="H180">
+        <v>11.469539360000001</v>
+      </c>
+      <c r="I180">
+        <v>104.5427272</v>
+      </c>
+      <c r="J180">
+        <v>12</v>
+      </c>
+      <c r="K180" t="s">
+        <v>6</v>
+      </c>
+      <c r="L180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>602</v>
+      </c>
+      <c r="B181" t="s">
+        <v>540</v>
+      </c>
+      <c r="C181" t="s">
+        <v>475</v>
+      </c>
+      <c r="D181" s="4">
+        <v>44797</v>
+      </c>
+      <c r="E181" t="s">
+        <v>3</v>
+      </c>
+      <c r="F181" t="s">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181">
+        <v>11.32805866</v>
+      </c>
+      <c r="I181">
+        <v>104.5763098</v>
+      </c>
+      <c r="J181">
+        <v>15</v>
+      </c>
+      <c r="K181" t="s">
+        <v>6</v>
+      </c>
+      <c r="L181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>603</v>
+      </c>
+      <c r="B182" t="s">
+        <v>541</v>
+      </c>
+      <c r="C182" t="s">
+        <v>476</v>
+      </c>
+      <c r="D182" s="4">
+        <v>44722</v>
+      </c>
+      <c r="E182" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182">
+        <v>11.465</v>
+      </c>
+      <c r="I182">
+        <v>104.5073</v>
+      </c>
+      <c r="J182">
+        <v>3</v>
+      </c>
+      <c r="K182" t="s">
+        <v>6</v>
+      </c>
+      <c r="L182" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>604</v>
+      </c>
+      <c r="B183" t="s">
+        <v>542</v>
+      </c>
+      <c r="C183" t="s">
+        <v>477</v>
+      </c>
+      <c r="D183" s="4">
+        <v>44714</v>
+      </c>
+      <c r="E183" t="s">
+        <v>3</v>
+      </c>
+      <c r="F183" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
+        <v>5</v>
+      </c>
+      <c r="H183">
+        <v>11.1427</v>
+      </c>
+      <c r="I183">
+        <v>105.82899999999999</v>
+      </c>
+      <c r="J183">
+        <v>18</v>
+      </c>
+      <c r="K183" t="s">
+        <v>13</v>
+      </c>
+      <c r="L183" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>605</v>
+      </c>
+      <c r="B184" t="s">
+        <v>543</v>
+      </c>
+      <c r="C184" t="s">
+        <v>478</v>
+      </c>
+      <c r="D184" s="4">
+        <v>44743</v>
+      </c>
+      <c r="E184" t="s">
+        <v>3</v>
+      </c>
+      <c r="F184" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184" t="s">
+        <v>5</v>
+      </c>
+      <c r="H184">
+        <v>12.465199999999999</v>
+      </c>
+      <c r="I184">
+        <v>103.8912</v>
+      </c>
+      <c r="J184">
+        <v>17</v>
+      </c>
+      <c r="K184" t="s">
+        <v>13</v>
+      </c>
+      <c r="L184" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>606</v>
+      </c>
+      <c r="B185" t="s">
+        <v>544</v>
+      </c>
+      <c r="C185" t="s">
+        <v>479</v>
+      </c>
+      <c r="D185" s="4">
+        <v>44765</v>
+      </c>
+      <c r="E185" t="s">
+        <v>3</v>
+      </c>
+      <c r="F185" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" t="s">
+        <v>5</v>
+      </c>
+      <c r="H185">
+        <v>11.1427</v>
+      </c>
+      <c r="I185">
+        <v>105.82899999999999</v>
+      </c>
+      <c r="J185">
+        <v>16</v>
+      </c>
+      <c r="K185" t="s">
+        <v>13</v>
+      </c>
+      <c r="L185" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>607</v>
+      </c>
+      <c r="B186" t="s">
+        <v>545</v>
+      </c>
+      <c r="C186" t="s">
+        <v>480</v>
+      </c>
+      <c r="D186" s="4">
+        <v>44788</v>
+      </c>
+      <c r="E186" t="s">
+        <v>3</v>
+      </c>
+      <c r="F186" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186">
+        <v>11.465</v>
+      </c>
+      <c r="I186">
+        <v>104.5073</v>
+      </c>
+      <c r="J186">
+        <v>11</v>
+      </c>
+      <c r="K186" t="s">
+        <v>6</v>
+      </c>
+      <c r="L186" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>608</v>
+      </c>
+      <c r="B187" t="s">
+        <v>546</v>
+      </c>
+      <c r="C187" t="s">
+        <v>481</v>
+      </c>
+      <c r="D187" s="4">
+        <v>44777</v>
+      </c>
+      <c r="E187" t="s">
+        <v>3</v>
+      </c>
+      <c r="F187" t="s">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s">
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <v>11.1427</v>
+      </c>
+      <c r="I187">
+        <v>105.82899999999999</v>
+      </c>
+      <c r="J187">
+        <v>16</v>
+      </c>
+      <c r="K187" t="s">
+        <v>13</v>
+      </c>
+      <c r="L187" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>390</v>
+      </c>
+      <c r="B188" t="s">
+        <v>419</v>
+      </c>
+      <c r="C188" t="s">
+        <v>391</v>
+      </c>
+      <c r="D188" s="4">
+        <v>43653</v>
+      </c>
+      <c r="E188" t="s">
+        <v>392</v>
+      </c>
+      <c r="F188" t="s">
+        <v>392</v>
+      </c>
+      <c r="G188" t="s">
+        <v>5</v>
+      </c>
+      <c r="J188">
+        <v>9</v>
+      </c>
+      <c r="K188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>393</v>
+      </c>
+      <c r="B189" t="s">
+        <v>394</v>
+      </c>
+      <c r="C189" t="s">
+        <v>395</v>
+      </c>
+      <c r="D189" s="4">
+        <v>43684</v>
+      </c>
+      <c r="E189" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" t="s">
+        <v>392</v>
+      </c>
+      <c r="G189" t="s">
+        <v>5</v>
+      </c>
+      <c r="J189">
+        <v>8</v>
+      </c>
+      <c r="K189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>399</v>
+      </c>
+      <c r="B190" t="s">
+        <v>400</v>
+      </c>
+      <c r="C190" t="s">
+        <v>401</v>
+      </c>
+      <c r="D190" s="4">
+        <v>44046</v>
+      </c>
+      <c r="E190" t="s">
+        <v>392</v>
+      </c>
+      <c r="F190" t="s">
+        <v>392</v>
+      </c>
+      <c r="G190" t="s">
+        <v>5</v>
+      </c>
+      <c r="J190">
+        <v>12</v>
+      </c>
+      <c r="K190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>396</v>
+      </c>
+      <c r="B191" t="s">
+        <v>397</v>
+      </c>
+      <c r="C191" t="s">
+        <v>398</v>
+      </c>
+      <c r="D191" s="4">
+        <v>43759</v>
+      </c>
+      <c r="E191" t="s">
+        <v>392</v>
+      </c>
+      <c r="F191" t="s">
+        <v>392</v>
+      </c>
+      <c r="G191" t="s">
+        <v>5</v>
+      </c>
+      <c r="J191">
+        <v>14</v>
+      </c>
+      <c r="K191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>402</v>
+      </c>
+      <c r="B192" t="s">
+        <v>403</v>
+      </c>
+      <c r="C192" t="s">
+        <v>404</v>
+      </c>
+      <c r="D192" s="4">
+        <v>44606</v>
+      </c>
+      <c r="E192" t="s">
+        <v>392</v>
+      </c>
+      <c r="F192" t="s">
+        <v>392</v>
+      </c>
+      <c r="G192" t="s">
+        <v>5</v>
+      </c>
+      <c r="H192">
+        <v>11.58098994</v>
+      </c>
+      <c r="I192">
+        <v>104.8382381</v>
+      </c>
+      <c r="J192">
+        <v>7</v>
+      </c>
+      <c r="K192" t="s">
+        <v>6</v>
+      </c>
+      <c r="L192" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>406</v>
+      </c>
+      <c r="B193" t="s">
+        <v>407</v>
+      </c>
+      <c r="C193" t="s">
+        <v>408</v>
+      </c>
+      <c r="D193" s="4">
+        <v>44697</v>
+      </c>
+      <c r="E193" t="s">
+        <v>392</v>
+      </c>
+      <c r="F193" t="s">
+        <v>392</v>
+      </c>
+      <c r="G193" t="s">
+        <v>5</v>
+      </c>
+      <c r="H193">
+        <v>11.31145499</v>
+      </c>
+      <c r="I193">
+        <v>104.43565049999999</v>
+      </c>
+      <c r="J193">
+        <v>12</v>
+      </c>
+      <c r="K193" t="s">
+        <v>6</v>
+      </c>
+      <c r="L193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>409</v>
+      </c>
+      <c r="B194" t="s">
+        <v>410</v>
+      </c>
+      <c r="C194" t="s">
+        <v>411</v>
+      </c>
+      <c r="D194" s="4">
+        <v>44743</v>
+      </c>
+      <c r="E194" t="s">
+        <v>392</v>
+      </c>
+      <c r="F194" t="s">
+        <v>392</v>
+      </c>
+      <c r="G194" t="s">
+        <v>5</v>
+      </c>
+      <c r="H194">
+        <v>11.4226616</v>
+      </c>
+      <c r="I194">
+        <v>104.6505231</v>
+      </c>
+      <c r="J194">
+        <v>14</v>
+      </c>
+      <c r="K194" t="s">
+        <v>13</v>
+      </c>
+      <c r="L194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>412</v>
+      </c>
+      <c r="B195" t="s">
+        <v>413</v>
+      </c>
+      <c r="C195" t="s">
+        <v>414</v>
+      </c>
+      <c r="D195" s="4">
+        <v>44750</v>
+      </c>
+      <c r="E195" t="s">
+        <v>392</v>
+      </c>
+      <c r="F195" t="s">
+        <v>392</v>
+      </c>
+      <c r="G195" t="s">
+        <v>5</v>
+      </c>
+      <c r="H195">
+        <v>11.482962759999999</v>
+      </c>
+      <c r="I195">
+        <v>104.61355330000001</v>
+      </c>
+      <c r="J195">
+        <v>19</v>
+      </c>
+      <c r="K195" t="s">
+        <v>13</v>
+      </c>
+      <c r="L195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>415</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B196" t="s">
         <v>416</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C196" t="s">
         <v>417</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D196" s="4">
         <v>44831</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E196" t="s">
         <v>392</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F196" t="s">
         <v>392</v>
       </c>
-      <c r="G134" t="s">
-        <v>5</v>
-      </c>
-      <c r="H134">
+      <c r="G196" t="s">
+        <v>5</v>
+      </c>
+      <c r="H196">
         <v>11.58098994</v>
       </c>
-      <c r="I134">
+      <c r="I196">
         <v>104.8382381</v>
       </c>
-      <c r="J134">
+      <c r="J196">
         <v>23</v>
       </c>
-      <c r="K134" t="s">
-        <v>6</v>
-      </c>
-      <c r="L134" t="s">
+      <c r="K196" t="s">
+        <v>6</v>
+      </c>
+      <c r="L196" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O196">
+    <sortCondition ref="E2:E196"/>
+    <sortCondition ref="C2:C196"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>